--- a/research_study/incremental_ddos.xlsx
+++ b/research_study/incremental_ddos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vemanuele/Desktop/regressione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vemanuele/Documents/GitHub/masters-degree-thesis/research_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43DCE79B-11D8-2C4A-9D21-65853C825B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE8E2FC-765E-E241-8A18-3919D69D1BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{5F0BCC78-0042-3E4F-995A-C25644649C92}"/>
+    <workbookView xWindow="2820" yWindow="1700" windowWidth="27640" windowHeight="15780" xr2:uid="{5F0BCC78-0042-3E4F-995A-C25644649C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2148,1972 +2148,1972 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="657"/>
                 <c:pt idx="0">
-                  <c:v>4.0649566068688321</c:v>
+                  <c:v>3.869185705445668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.016077253378973</c:v>
+                  <c:v>3.8202049951194179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9344037949186554</c:v>
+                  <c:v>3.7384329948412405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.884320154536157</c:v>
+                  <c:v>3.6883333870978521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.841285516180255</c:v>
+                  <c:v>3.6453124106715706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7691190777932477</c:v>
+                  <c:v>3.5732264636384059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7247061523930873</c:v>
+                  <c:v>3.5288994133056311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6817437685032717</c:v>
+                  <c:v>3.4860468014609625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6176183180482493</c:v>
+                  <c:v>3.4221346785843978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5780285205212503</c:v>
+                  <c:v>3.3827065502603504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5354478154058837</c:v>
+                  <c:v>3.3403255910763341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4821808325417809</c:v>
+                  <c:v>3.2873466793658062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4466083357983011</c:v>
+                  <c:v>3.2519904846191889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4120459039042355</c:v>
+                  <c:v>3.2176567705055468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4082659543825273</c:v>
+                  <c:v>3.2139029520002285</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3601814243342774</c:v>
+                  <c:v>3.1661702099884845</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3244738873061599</c:v>
+                  <c:v>3.1307473489013784</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2932396546919009</c:v>
+                  <c:v>3.0997786869277633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2495564746767887</c:v>
+                  <c:v>3.0564931167643432</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.220258478926934</c:v>
+                  <c:v>3.0274790803834883</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1885668209695885</c:v>
+                  <c:v>2.9961103669638618</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1486586775375289</c:v>
+                  <c:v>2.9566324653690015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1218447090023496</c:v>
+                  <c:v>2.9301224756685982</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0927970239244122</c:v>
+                  <c:v>2.9014177393096885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0561551529498776</c:v>
+                  <c:v>2.8652289121600676</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0287912454065049</c:v>
+                  <c:v>2.8382183470765554</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.00474810288889</c:v>
+                  <c:v>2.8144963581041078</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.9709544295827373</c:v>
+                  <c:v>2.7811711378756891</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.9456797188925479</c:v>
+                  <c:v>2.7562599335152251</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9234457024362066</c:v>
+                  <c:v>2.7343550725718564</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.8897851179370955</c:v>
+                  <c:v>2.7012096599045594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8687172973226267</c:v>
+                  <c:v>2.6804746965880462</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.8480786501559217</c:v>
+                  <c:v>2.6601699667620178</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.8167938383589384</c:v>
+                  <c:v>2.6294062356683119</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.7971889184314391</c:v>
+                  <c:v>2.6101370907094239</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.7674461659223391</c:v>
+                  <c:v>2.5809174540704798</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.7487923849280524</c:v>
+                  <c:v>2.5626002537345909</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.7304902819860248</c:v>
+                  <c:v>2.5446348012356501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.7026940657279117</c:v>
+                  <c:v>2.5173621156259824</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.6968413580515187</c:v>
+                  <c:v>2.5116215346758315</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.681407853226327</c:v>
+                  <c:v>2.4964868828671252</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.6549908347051381</c:v>
+                  <c:v>2.4705921510560467</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.6383927922540393</c:v>
+                  <c:v>2.4543292562665395</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6220852358642039</c:v>
+                  <c:v>2.4383562732012476</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5972758891696759</c:v>
+                  <c:v>2.4140660548199806</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5816738353812148</c:v>
+                  <c:v>2.3987967727328949</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5579230271818378</c:v>
+                  <c:v>2.3755619561044834</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5429775814239215</c:v>
+                  <c:v>2.3609470696023198</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.5282761444978687</c:v>
+                  <c:v>2.3465752452134101</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.5186080946754736</c:v>
+                  <c:v>2.3371263746336384</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5186052051420913</c:v>
+                  <c:v>2.3371235508949351</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5186052043939049</c:v>
+                  <c:v>2.3371235501637866</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.517002754635985</c:v>
+                  <c:v>2.3355576147011936</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5170024401288233</c:v>
+                  <c:v>2.3355573073657596</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5170017149842026</c:v>
+                  <c:v>2.3355565987566691</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5170001774065205</c:v>
+                  <c:v>2.3355550962405278</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.5169995634979769</c:v>
+                  <c:v>2.3355544963310182</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.5169982777897419</c:v>
+                  <c:v>2.3355532399409715</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.5169973975706212</c:v>
+                  <c:v>2.3355523797936328</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.5169966982091849</c:v>
+                  <c:v>2.3355516963798619</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.5169922285345852</c:v>
+                  <c:v>2.3355473286283073</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.5169953745458309</c:v>
+                  <c:v>2.3355504029002736</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.5027138767181207</c:v>
+                  <c:v>2.3215966758593503</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.5027121927544989</c:v>
+                  <c:v>2.3215950307928019</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.5090304665924279</c:v>
+                  <c:v>2.3277677752126951</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.507445545651779</c:v>
+                  <c:v>2.3262192822526409</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.5074460095618374</c:v>
+                  <c:v>2.3262197354925411</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.507445452355114</c:v>
+                  <c:v>2.3262191911018468</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5074464355477888</c:v>
+                  <c:v>2.3262201516806087</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.5074461680353646</c:v>
+                  <c:v>2.3262198903211004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.5058642540512652</c:v>
+                  <c:v>2.3246743870228026</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.5074464908789875</c:v>
+                  <c:v>2.3262202057391663</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.5074460106107108</c:v>
+                  <c:v>2.326219736517289</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.5074464568511678</c:v>
+                  <c:v>2.3262201724940019</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.5074449566296728</c:v>
+                  <c:v>2.3262187067783398</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.5058651227688054</c:v>
+                  <c:v>2.3246752357309797</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.5090297175390859</c:v>
+                  <c:v>2.3277670433633961</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5137987932565777</c:v>
+                  <c:v>2.3324268193424094</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.51379939759684</c:v>
+                  <c:v>2.3324274098619115</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5137996645124292</c:v>
+                  <c:v>2.3324276706733675</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5153947159964343</c:v>
+                  <c:v>2.3339862709364678</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.5137993945817074</c:v>
+                  <c:v>2.3324274069157336</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.5137979569394671</c:v>
+                  <c:v>2.3324260021511849</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.513798562805484</c:v>
+                  <c:v>2.3324265941615412</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.5137976131687232</c:v>
+                  <c:v>2.3324256662422007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.5201977030446172</c:v>
+                  <c:v>2.3386798136975968</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.5153931308209216</c:v>
+                  <c:v>2.3339847219604195</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.5122062072442288</c:v>
+                  <c:v>2.3308706806415218</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.509028942850112</c:v>
+                  <c:v>2.3277662864672668</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.510615396987756</c:v>
+                  <c:v>2.3293163293651298</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.5106165462586101</c:v>
+                  <c:v>2.3293174522775471</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.5090288314200224</c:v>
+                  <c:v>2.3277661775964753</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.5106154706815587</c:v>
+                  <c:v>2.3293164013687715</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.5137970427428815</c:v>
+                  <c:v>2.3324251088615426</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.525025977979857</c:v>
+                  <c:v>2.3433985469973657</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.5169889536520471</c:v>
+                  <c:v>2.3355441284239484</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.5169916219456958</c:v>
+                  <c:v>2.3355467358716404</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5250254946333084</c:v>
+                  <c:v>2.3433980745927561</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.5250267595081213</c:v>
+                  <c:v>2.3433993108335005</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.5250267821990802</c:v>
+                  <c:v>2.3433993330107872</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.516992479835245</c:v>
+                  <c:v>2.3355475741984861</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.516992377500948</c:v>
+                  <c:v>2.3355474741977482</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.5169921645747588</c:v>
+                  <c:v>2.3355472661269734</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.5169925042859704</c:v>
+                  <c:v>2.3355475980916562</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.5169925217437834</c:v>
+                  <c:v>2.3355476151513734</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.5169920470412799</c:v>
+                  <c:v>2.3355471512736452</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.516993416645084</c:v>
+                  <c:v>2.3355484896460026</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.5169911761361221</c:v>
+                  <c:v>2.3355463002279953</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.5169918730246681</c:v>
+                  <c:v>2.3355469812251832</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.5169921449636732</c:v>
+                  <c:v>2.335547246963086</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.5153953678209442</c:v>
+                  <c:v>2.3339869078757642</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.5153940743749117</c:v>
+                  <c:v>2.3339856439671691</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.5106166908882481</c:v>
+                  <c:v>2.3293175935901176</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.5106150662940103</c:v>
+                  <c:v>2.3293160062558265</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.5106152243707931</c:v>
+                  <c:v>2.3293161607071262</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.5106144984310528</c:v>
+                  <c:v>2.3293154514167749</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.5106128996869232</c:v>
+                  <c:v>2.3293138893397964</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.5106102611418373</c:v>
+                  <c:v>2.3293113113097776</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.5106103601664174</c:v>
+                  <c:v>2.3293114080632247</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.5106105958741551</c:v>
+                  <c:v>2.329311638364997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.5106085790023136</c:v>
+                  <c:v>2.3293096677502234</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.5106079963242234</c:v>
+                  <c:v>2.3293090984359015</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.5106061685938075</c:v>
+                  <c:v>2.3293073126246777</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.5106040805341583</c:v>
+                  <c:v>2.3293052724549859</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.5090191928523438</c:v>
+                  <c:v>2.3277567604058711</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.504275809487535</c:v>
+                  <c:v>2.3231225555991708</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.504272165879398</c:v>
+                  <c:v>2.3231189960351215</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.5042735741411728</c:v>
+                  <c:v>2.3231203718136575</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.5058514913704228</c:v>
+                  <c:v>2.3246619183094217</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.5058497528991657</c:v>
+                  <c:v>2.3246602198812676</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.5042707586587247</c:v>
+                  <c:v>2.323117621273719</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.5058481612215169</c:v>
+                  <c:v>2.3246586648656011</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.5042682939283898</c:v>
+                  <c:v>2.3231152133955018</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.509011781140885</c:v>
+                  <c:v>2.3277495189267192</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.5074280327839777</c:v>
+                  <c:v>2.3262021721926649</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.5074282439682056</c:v>
+                  <c:v>2.3262023785194765</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.5074284394222142</c:v>
+                  <c:v>2.3262025694778745</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.5074284113980188</c:v>
+                  <c:v>2.3262025420982599</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.5074295583894002</c:v>
+                  <c:v>2.3262036627078753</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.5137812536025712</c:v>
+                  <c:v>2.3324096808089503</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.5137811604605549</c:v>
+                  <c:v>2.3324095897970492</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.5090142068939914</c:v>
+                  <c:v>2.3277518889649644</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.5074262392725259</c:v>
+                  <c:v>2.3262004199335511</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.5074284958911197</c:v>
+                  <c:v>2.3262026246479484</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.5058468404849523</c:v>
+                  <c:v>2.3246573745503261</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.5058473269966064</c:v>
+                  <c:v>2.3246578498558712</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.5058459838909224</c:v>
+                  <c:v>2.3246565376867414</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.5058458028656396</c:v>
+                  <c:v>2.3246563608311237</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.5074276190407678</c:v>
+                  <c:v>2.3262017679659075</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.5090115950291971</c:v>
+                  <c:v>2.3277493370896627</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.5090116920305929</c:v>
+                  <c:v>2.3277494318631193</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.5105981501236792</c:v>
+                  <c:v>2.3292994780598351</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.5105976613551286</c:v>
+                  <c:v>2.3292990005013374</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.510597477031669</c:v>
+                  <c:v>2.3292988204053926</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.5105976873764759</c:v>
+                  <c:v>2.3292990259258772</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.5105976882356962</c:v>
+                  <c:v>2.3292990267653915</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.5105966526838204</c:v>
+                  <c:v>2.3292980149642188</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.5090099360825473</c:v>
+                  <c:v>2.3277477162458862</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5105952717669111</c:v>
+                  <c:v>2.329296665719105</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.5105983444363802</c:v>
+                  <c:v>2.3292996679159179</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.5105987445686719</c:v>
+                  <c:v>2.3293000588710639</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.5121870059608815</c:v>
+                  <c:v>2.3308519191109673</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.5121873941480444</c:v>
+                  <c:v>2.3308522984076934</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.5137798680911696</c:v>
+                  <c:v>2.3324083269835705</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.5137797747955988</c:v>
+                  <c:v>2.3324082358216285</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.5121877232989376</c:v>
+                  <c:v>2.3308526200202246</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.5137807979042379</c:v>
+                  <c:v>2.3324092355322286</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.5137790601238783</c:v>
+                  <c:v>2.3324075374941438</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.5121849735207906</c:v>
+                  <c:v>2.3308499332187962</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.5137792306121693</c:v>
+                  <c:v>2.3324077040834394</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.5121861583522915</c:v>
+                  <c:v>2.3308510909147069</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.5137764212963032</c:v>
+                  <c:v>2.3324049590155189</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.513778863860606</c:v>
+                  <c:v>2.3324073457193308</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.5121869455256411</c:v>
+                  <c:v>2.3308518600598434</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.5121879357030124</c:v>
+                  <c:v>2.3308528275597262</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.5121879196577304</c:v>
+                  <c:v>2.3308528118819214</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.5121876581498017</c:v>
+                  <c:v>2.3308525563631628</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.5121882191709197</c:v>
+                  <c:v>2.330853104535529</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.5121888670801917</c:v>
+                  <c:v>2.3308537376061045</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.5121880927674818</c:v>
+                  <c:v>2.3308529810270358</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.5121840747658801</c:v>
+                  <c:v>2.3308490550476297</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.5090092985251338</c:v>
+                  <c:v>2.327747093331979</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.5090095513729653</c:v>
+                  <c:v>2.3277473403723654</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.509007874826191</c:v>
+                  <c:v>2.3277457023327806</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.5090063488972771</c:v>
+                  <c:v>2.3277442114516891</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.5090064887301908</c:v>
+                  <c:v>2.3277443480728923</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.5090049651843356</c:v>
+                  <c:v>2.327742859520169</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.5026869875374742</c:v>
+                  <c:v>2.3215704077861083</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.5026853870891212</c:v>
+                  <c:v>2.3215688443066416</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.5026846574552204</c:v>
+                  <c:v>2.321568131526631</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.5026827726972267</c:v>
+                  <c:v>2.3215662903049097</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.5026826485676485</c:v>
+                  <c:v>2.321566169042621</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.5026832189445556</c:v>
+                  <c:v>2.3215667262443063</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.5026836777068913</c:v>
+                  <c:v>2.321567174409628</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.5074188719991128</c:v>
+                  <c:v>2.3261932221145885</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.5058379010865184</c:v>
+                  <c:v>2.324648641059174</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.5042597072021437</c:v>
+                  <c:v>2.3231068247339333</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.502684169743767</c:v>
+                  <c:v>2.3215676550808815</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2.5026840571218076</c:v>
+                  <c:v>2.3215675450603896</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.5026840231101644</c:v>
+                  <c:v>2.3215675118343864</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2.491733318593333</c:v>
+                  <c:v>2.3108710038281393</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2.476322741796988</c:v>
+                  <c:v>2.2958223807893905</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2.4566858306774368</c:v>
+                  <c:v>2.276653898969621</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2.4433473405553947</c:v>
+                  <c:v>2.2636382288403682</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2.4404106139189077</c:v>
+                  <c:v>2.2607730834388744</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2.4287650952414519</c:v>
+                  <c:v>2.2494132233311497</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.4087569086160654</c:v>
+                  <c:v>2.2299025889141779</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.4059364701707988</c:v>
+                  <c:v>2.2271529780412429</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2.3864519072398527</c:v>
+                  <c:v>2.2081624032542138</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.3728052525561281</c:v>
+                  <c:v>2.1948666284237643</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2.3553909364909384</c:v>
+                  <c:v>2.1779059658450968</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.3514232270655935</c:v>
+                  <c:v>2.1740425474174341</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2.3435448447708351</c:v>
+                  <c:v>2.1663722747434626</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.3409350900132204</c:v>
+                  <c:v>2.1638317591070289</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2.3305775812153846</c:v>
+                  <c:v>2.1537505290051806</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2.3140210181742598</c:v>
+                  <c:v>2.137640545520564</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2.3015095107937027</c:v>
+                  <c:v>2.1254705688185709</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>2.2904110182515707</c:v>
+                  <c:v>2.1146779755004306</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.2746453932511903</c:v>
+                  <c:v>2.099351664171103</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.2627247509465431</c:v>
+                  <c:v>2.0877669371917262</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.2521455531561241</c:v>
+                  <c:v>2.0774885678366002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.2359647222345371</c:v>
+                  <c:v>2.0617728164726605</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.2257348400068664</c:v>
+                  <c:v>2.0518400814227564</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.2100821074421959</c:v>
+                  <c:v>2.036646710039931</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.2001823149521869</c:v>
+                  <c:v>2.0270403945457343</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.199090152388373</c:v>
+                  <c:v>2.0259807492954525</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.1904073306487013</c:v>
+                  <c:v>2.0175574395711013</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.1754435696096852</c:v>
+                  <c:v>2.0030450802991751</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.1659746504698578</c:v>
+                  <c:v>1.993864540067263</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.1555906076425915</c:v>
+                  <c:v>1.9837991972297744</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.1423001638851749</c:v>
+                  <c:v>1.9709204133155143</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.1332324340267017</c:v>
+                  <c:v>1.962135981907372</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.1232843804968184</c:v>
+                  <c:v>1.952501011794018</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2.1105464549363755</c:v>
+                  <c:v>1.9401674735970622</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2.1018532701625734</c:v>
+                  <c:v>1.9317525370335784</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2.0923122693691312</c:v>
+                  <c:v>1.9225190488450858</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2.0791591968441403</c:v>
+                  <c:v>1.9097935764706355</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2.070825010100227</c:v>
+                  <c:v>1.901732541191973</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2.0625855107564126</c:v>
+                  <c:v>1.8937647836175941</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.0507659695111728</c:v>
+                  <c:v>1.8823380085316435</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.0419443764137593</c:v>
+                  <c:v>1.8738118372972403</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.0296627974009454</c:v>
+                  <c:v>1.861944809166767</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2.0201589363419266</c:v>
+                  <c:v>1.8527643563217029</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.0082429755938325</c:v>
+                  <c:v>1.8412571274432585</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2.000686941958862</c:v>
+                  <c:v>1.8339621522345624</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.9890899964656319</c:v>
+                  <c:v>1.8227687253235763</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1.9874512639433943</c:v>
+                  <c:v>1.8211872919288699</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.9825512904951024</c:v>
+                  <c:v>1.8164590619332459</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1.9817371979550908</c:v>
+                  <c:v>1.8156735633190295</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.9817368989573951</c:v>
+                  <c:v>1.8156732748263822</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.981735827660229</c:v>
+                  <c:v>1.8156722411684105</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.981734937982812</c:v>
+                  <c:v>1.8156713827491453</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.9760668462659003</c:v>
+                  <c:v>1.810202851037469</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.9752621103709977</c:v>
+                  <c:v>1.809426515457693</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.9752609886831198</c:v>
+                  <c:v>1.8094254333675552</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.9696454867929942</c:v>
+                  <c:v>1.8040085789422684</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.9688471170819122</c:v>
+                  <c:v>1.8032385179727055</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.9696456751240996</c:v>
+                  <c:v>1.80400876059745</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.9728344606796897</c:v>
+                  <c:v>1.8070846429037597</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.9696468484575214</c:v>
+                  <c:v>1.804009892338805</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.968049862805632</c:v>
+                  <c:v>1.8024695494369982</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.9624924565749182</c:v>
+                  <c:v>1.7971097740999185</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.9617006797833132</c:v>
+                  <c:v>1.7963462198022195</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.9617013359643907</c:v>
+                  <c:v>1.7963468525872675</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.9624908526270688</c:v>
+                  <c:v>1.7971082273074592</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.9664269664360456</c:v>
+                  <c:v>1.8009042828437907</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.9696430285550166</c:v>
+                  <c:v>1.8040062078435017</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.9704423914202038</c:v>
+                  <c:v>1.8047772433102951</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.9704423694497768</c:v>
+                  <c:v>1.8047772221182172</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.9704428962118934</c:v>
+                  <c:v>1.8047777302186936</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.9712429432566729</c:v>
+                  <c:v>1.8055494422649541</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.9712427235469077</c:v>
+                  <c:v>1.8055492303342908</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.971242638026548</c:v>
+                  <c:v>1.8055491478418879</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.9704398606571334</c:v>
+                  <c:v>1.80477480220485</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.9696355668225056</c:v>
+                  <c:v>1.803999010614205</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.969642836559043</c:v>
+                  <c:v>1.8040060226533752</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.9696430386550055</c:v>
+                  <c:v>1.8040062175854656</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.9696429463498124</c:v>
+                  <c:v>1.8040061285522966</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.9728451451000473</c:v>
+                  <c:v>1.8070949494719339</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.9720436343076071</c:v>
+                  <c:v>1.8063217921645913</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.9728456847860116</c:v>
+                  <c:v>1.8070954700721007</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.9736483725809169</c:v>
+                  <c:v>1.8078697794771732</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.9776774958951371</c:v>
+                  <c:v>1.8117567089007671</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.9792959420266643</c:v>
+                  <c:v>1.8133181560650258</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.9825427174379378</c:v>
+                  <c:v>1.8164507899041284</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.9817297314575706</c:v>
+                  <c:v>1.8156663591516822</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.9817309064566102</c:v>
+                  <c:v>1.8156674928678573</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.9817295017501972</c:v>
+                  <c:v>1.8156661375149412</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.9825436903123306</c:v>
+                  <c:v>1.8164517286176272</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.9825432838682588</c:v>
+                  <c:v>1.8164513364451718</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.9825428207231754</c:v>
+                  <c:v>1.8164508895626739</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.9817293058864351</c:v>
+                  <c:v>1.8156659485327358</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.9817286434934214</c:v>
+                  <c:v>1.8156653094125128</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.9825425422782765</c:v>
+                  <c:v>1.8164506208949149</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.9792960194990294</c:v>
+                  <c:v>1.8133182308105664</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.9768704110794637</c:v>
+                  <c:v>1.8109780736208005</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.9768696987817087</c:v>
+                  <c:v>1.8109773864388181</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.9776782680030505</c:v>
+                  <c:v>1.8117574538001537</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.9817272064478526</c:v>
+                  <c:v>1.8156639228567424</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.9858064273911069</c:v>
+                  <c:v>1.8196000375783306</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.9849901313344522</c:v>
+                  <c:v>1.8188123442193482</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.9801076232974189</c:v>
+                  <c:v>1.8141012768154934</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.9760572424298188</c:v>
+                  <c:v>1.8101935860358924</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.9720432285878073</c:v>
+                  <c:v>1.8063214008013757</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.9704432389578712</c:v>
+                  <c:v>1.8047780608221899</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.9688454015113788</c:v>
+                  <c:v>1.803236863251046</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.9617015801970767</c:v>
+                  <c:v>1.796347088111881</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.9546298825490958</c:v>
+                  <c:v>1.7895281841740798</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.9437703639069566</c:v>
+                  <c:v>1.7790594158009621</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.9384037655535218</c:v>
+                  <c:v>1.7738870656271073</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.9315660253172497</c:v>
+                  <c:v>1.7672979247855276</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.9300559040701804</c:v>
+                  <c:v>1.7658428738038172</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.9240471582391256</c:v>
+                  <c:v>1.7600538509912913</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.9077958800844745</c:v>
+                  <c:v>1.7444016548653587</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.8947842220271036</c:v>
+                  <c:v>1.7318747554922942</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.8855417883681409</c:v>
+                  <c:v>1.722979428500977</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.8778194863311948</c:v>
+                  <c:v>1.71554891860827</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.8681184906932138</c:v>
+                  <c:v>1.706216781910064</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.8633227645445887</c:v>
+                  <c:v>1.7016043524796447</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.8565294451709431</c:v>
+                  <c:v>1.6950717589997211</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.8504767803705049</c:v>
+                  <c:v>1.6892524632452266</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.8504765593146737</c:v>
+                  <c:v>1.6892522507309566</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.8504764376814757</c:v>
+                  <c:v>1.6892521337976469</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.8504755500559988</c:v>
+                  <c:v>1.6892512804698905</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.8504733322816658</c:v>
+                  <c:v>1.6892491483901342</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.8504749752970973</c:v>
+                  <c:v>1.689250727919601</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.8504747822056928</c:v>
+                  <c:v>1.6892505422892254</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.8504743358035569</c:v>
+                  <c:v>1.689250113136022</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.8504717360660721</c:v>
+                  <c:v>1.6892476138522334</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.8504739066843301</c:v>
+                  <c:v>1.6892497005979248</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.8504732834364686</c:v>
+                  <c:v>1.6892491014323112</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.8504733399977276</c:v>
+                  <c:v>1.6892491558080462</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.8504732007547351</c:v>
+                  <c:v>1.6892490219453933</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.8504726327966832</c:v>
+                  <c:v>1.6892484759332078</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.8504725113681535</c:v>
+                  <c:v>1.6892483591966709</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.8504652974423319</c:v>
+                  <c:v>1.6892414240173175</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.8504694797997139</c:v>
+                  <c:v>1.6892454447680187</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.8504712233744951</c:v>
+                  <c:v>1.6892471209710496</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.8504706814497265</c:v>
+                  <c:v>1.6892465999862518</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.8504700263292224</c:v>
+                  <c:v>1.6892459701796101</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.850469350376664</c:v>
+                  <c:v>1.6892453203458799</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.8504637785030666</c:v>
+                  <c:v>1.6892399637701272</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.8504691880825477</c:v>
+                  <c:v>1.6892451643228148</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.8504689972159243</c:v>
+                  <c:v>1.6892449808312866</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.8504690733979396</c:v>
+                  <c:v>1.6892450540696244</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.8504693352825081</c:v>
+                  <c:v>1.689245305834963</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.8504692045777666</c:v>
+                  <c:v>1.6892451801806576</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.8504692773062086</c:v>
+                  <c:v>1.6892452500988693</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.851808078739329</c:v>
+                  <c:v>1.6905323449125478</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.8531505343843315</c:v>
+                  <c:v>1.691823002433948</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.8538229547690765</c:v>
+                  <c:v>1.692469496411422</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.8544940133755834</c:v>
+                  <c:v>1.6931146935338053</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.8531503167838732</c:v>
+                  <c:v>1.6918227932254923</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.8504671616454698</c:v>
+                  <c:v>1.6892432161874107</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.8511346987891237</c:v>
+                  <c:v>1.6898849657763384</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.8511369723432112</c:v>
+                  <c:v>1.6898871515220106</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.850466593962335</c:v>
+                  <c:v>1.6892426704396146</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.8504660046935539</c:v>
+                  <c:v>1.6892421039402521</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.8504656309704171</c:v>
+                  <c:v>1.6892417446578285</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.8504649459004912</c:v>
+                  <c:v>1.6892410860591067</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.8504644029206219</c:v>
+                  <c:v>1.6892405640600736</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.8504644444518428</c:v>
+                  <c:v>1.6892406039865211</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.8504622213534838</c:v>
+                  <c:v>1.6892384667891378</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.8518044427842641</c:v>
+                  <c:v>1.6905288493168444</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.8538191361479368</c:v>
+                  <c:v>1.69246582498909</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1.857869280263623</c:v>
+                  <c:v>1.6963600711976106</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1.8592250435207003</c:v>
+                  <c:v>1.6976637492793549</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1.8646720372033008</c:v>
+                  <c:v>1.7029019911209904</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1.8674146995945318</c:v>
+                  <c:v>1.705539850889537</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1.8653597209393242</c:v>
+                  <c:v>1.7035633777387702</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1.864675663020475</c:v>
+                  <c:v>1.7029054782524609</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1.8619446962399826</c:v>
+                  <c:v>1.7002790716616529</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>1.8605828806596103</c:v>
+                  <c:v>1.6989694721788284</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>1.8558412556069148</c:v>
+                  <c:v>1.6944100527213251</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>1.8504638681140702</c:v>
+                  <c:v>1.6892400499185436</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1.8504626500976977</c:v>
+                  <c:v>1.6892388789665767</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>1.8504639874749089</c:v>
+                  <c:v>1.6892401646672577</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1.8504641605890042</c:v>
+                  <c:v>1.6892403310921915</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>1.8504638770953261</c:v>
+                  <c:v>1.689240058552762</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>1.8504639897761241</c:v>
+                  <c:v>1.6892401668795534</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>1.8504637102114361</c:v>
+                  <c:v>1.689239898117298</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>1.8504637614340846</c:v>
+                  <c:v>1.689239947360694</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1.8504543068320345</c:v>
+                  <c:v>1.6892308580875324</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1.8504639518558248</c:v>
+                  <c:v>1.6892401304245011</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1.850463497855833</c:v>
+                  <c:v>1.6892396939671577</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1.8504634734828305</c:v>
+                  <c:v>1.6892396705359323</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>1.8504640869165354</c:v>
+                  <c:v>1.6892402602664423</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1.8504639943586092</c:v>
+                  <c:v>1.6892401712849689</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1.8499685419958922</c:v>
+                  <c:v>1.6887638666814433</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1.8504641744050649</c:v>
+                  <c:v>1.6892403443743986</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1.850463842596576</c:v>
+                  <c:v>1.689240025387051</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1.8504639237255869</c:v>
+                  <c:v>1.6892401033812217</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1.8504644946371567</c:v>
+                  <c:v>1.6892406522326642</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1.8504642187573475</c:v>
+                  <c:v>1.6892403870128996</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1.8504640117355899</c:v>
+                  <c:v>1.6892401879905026</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1.8504611911468767</c:v>
+                  <c:v>1.6892374763899731</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1.8504639294849252</c:v>
+                  <c:v>1.6892401089180165</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>1.850463457701832</c:v>
+                  <c:v>1.6892396553647164</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>1.8504634123160579</c:v>
+                  <c:v>1.6892396117326571</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1.850461278140628</c:v>
+                  <c:v>1.6892375600222633</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>1.8504626570283902</c:v>
+                  <c:v>1.6892388856294658</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>1.8524750537776418</c:v>
+                  <c:v>1.6911735787715763</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.8524720958393177</c:v>
+                  <c:v>1.6911707349646055</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>1.8504640362752531</c:v>
+                  <c:v>1.689240211581948</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>1.8504640535343102</c:v>
+                  <c:v>1.689240228174111</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>1.8504631512251195</c:v>
+                  <c:v>1.6892393607303264</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>1.8504627947369974</c:v>
+                  <c:v>1.6892390180169832</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>1.8504631166886685</c:v>
+                  <c:v>1.6892393275283715</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>1.8504637532733845</c:v>
+                  <c:v>1.6892399395153253</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>1.850463405998731</c:v>
+                  <c:v>1.6892396056594328</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>1.8504627212416154</c:v>
+                  <c:v>1.6892389473614773</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>1.8504626948466352</c:v>
+                  <c:v>1.6892389219864057</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>1.8504629233024112</c:v>
+                  <c:v>1.6892391416146004</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.8504635032513161</c:v>
+                  <c:v>1.6892396991541592</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>1.8504633923861842</c:v>
+                  <c:v>1.6892395925728778</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>1.8504633532331998</c:v>
+                  <c:v>1.6892395549327717</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>1.8504631207342885</c:v>
+                  <c:v>1.689239331417669</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>1.8504632354838073</c:v>
+                  <c:v>1.6892394417332406</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>1.8504630888834523</c:v>
+                  <c:v>1.6892393007975546</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>1.850462495698906</c:v>
+                  <c:v>1.6892387305337897</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.8504624099731577</c:v>
+                  <c:v>1.6892386481205039</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>1.8504620944359407</c:v>
+                  <c:v>1.6892383447757198</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>1.8504616343744371</c:v>
+                  <c:v>1.6892379024911057</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>1.8504614051815631</c:v>
+                  <c:v>1.689237682154302</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>1.8504621724601991</c:v>
+                  <c:v>1.6892384197851014</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>1.8504618672083171</c:v>
+                  <c:v>1.6892381263282261</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>1.8504617521148032</c:v>
+                  <c:v>1.6892380156819544</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>1.8504612374446161</c:v>
+                  <c:v>1.6892375208987565</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>1.8504619274673295</c:v>
+                  <c:v>1.6892381842588162</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.8504610537319741</c:v>
+                  <c:v>1.6892373442848196</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>1.8504615997218672</c:v>
+                  <c:v>1.6892378691775194</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>1.8504620391444897</c:v>
+                  <c:v>1.6892382916207431</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>1.8504620143646002</c:v>
+                  <c:v>1.6892382677983553</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>1.8504618762021081</c:v>
+                  <c:v>1.6892381349744958</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>1.8504565251691212</c:v>
+                  <c:v>1.6892329907071344</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>1.850461747466329</c:v>
+                  <c:v>1.6892380112130996</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>1.8504617725575883</c:v>
+                  <c:v>1.6892380353348249</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>1.8504617506051981</c:v>
+                  <c:v>1.6892380142306813</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>1.8504617855791043</c:v>
+                  <c:v>1.6892380478531872</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>1.8504616097531961</c:v>
+                  <c:v>1.6892378788212365</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>1.8504622133811102</c:v>
+                  <c:v>1.6892384591248195</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>1.8504617650137867</c:v>
+                  <c:v>1.6892380280825181</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>1.8504618900187617</c:v>
+                  <c:v>1.6892381482572691</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>1.8504622094178025</c:v>
+                  <c:v>1.6892384553146556</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>1.8504617050510113</c:v>
+                  <c:v>1.6892379704367186</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>1.8504618148414786</c:v>
+                  <c:v>1.689238075984856</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>1.8504618890328053</c:v>
+                  <c:v>1.6892381473094118</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>1.8504610188005424</c:v>
+                  <c:v>1.6892373107031466</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>1.8504602927745337</c:v>
+                  <c:v>1.6892366127309866</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>1.8504617088700019</c:v>
+                  <c:v>1.6892379741081429</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>1.8504620304435633</c:v>
+                  <c:v>1.6892382832560242</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>1.8511312970277047</c:v>
+                  <c:v>1.6898816953968303</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>1.850461696212182</c:v>
+                  <c:v>1.6892379619394249</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>1.8504618556462757</c:v>
+                  <c:v>1.689238115212945</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>1.8504610859477251</c:v>
+                  <c:v>1.6892373752557448</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>1.8504615721650077</c:v>
+                  <c:v>1.6892378426854633</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>1.8504596258991473</c:v>
+                  <c:v>1.689235971623865</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>1.8504620387236117</c:v>
+                  <c:v>1.6892382912161286</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>1.8504597086584276</c:v>
+                  <c:v>1.6892360511853004</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>1.8504614064165548</c:v>
+                  <c:v>1.6892376833415756</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>1.8504620002209533</c:v>
+                  <c:v>1.6892382542012225</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>1.8504601100626552</c:v>
+                  <c:v>1.6892364370791482</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>1.850461826482124</c:v>
+                  <c:v>1.6892380871757045</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>1.8504615238090742</c:v>
+                  <c:v>1.6892377961980161</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>1.8504599748541519</c:v>
+                  <c:v>1.6892363070951415</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>1.8504621543469242</c:v>
+                  <c:v>1.6892384023717282</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>1.850462193554661</c:v>
+                  <c:v>1.6892384400644695</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>1.8504615368000714</c:v>
+                  <c:v>1.6892378086870372</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>1.8504614980712382</c:v>
+                  <c:v>1.6892377714546964</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>1.8504617541337114</c:v>
+                  <c:v>1.689238017622853</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>1.8504615201110188</c:v>
+                  <c:v>1.6892377926428537</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>1.8504616926829722</c:v>
+                  <c:v>1.6892379585465842</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>1.8504614286108785</c:v>
+                  <c:v>1.689237704678304</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>1.8504617069508862</c:v>
+                  <c:v>1.6892379722631827</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>1.850461646702835</c:v>
+                  <c:v>1.6892379143431322</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>1.8504616686434401</c:v>
+                  <c:v>1.6892379354359452</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>1.8504617192173263</c:v>
+                  <c:v>1.6892379840556446</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>1.8504615068234749</c:v>
+                  <c:v>1.6892377798687446</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>1.8504614614686861</c:v>
+                  <c:v>1.6892377362664774</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>1.8504612018392708</c:v>
+                  <c:v>1.6892374866692099</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>1.8504615259802362</c:v>
+                  <c:v>1.6892377982852846</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>1.8504601635517295</c:v>
+                  <c:v>1.6892364885013891</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>1.8504612960226086</c:v>
+                  <c:v>1.6892375772132793</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>1.8504617469810538</c:v>
+                  <c:v>1.689238010746575</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>1.8504617662151288</c:v>
+                  <c:v>1.6892380292374403</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>1.8504615984738813</c:v>
+                  <c:v>1.6892378679777567</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>1.8504616439779196</c:v>
+                  <c:v>1.6892379117235079</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>1.8504520480048749</c:v>
+                  <c:v>1.6892286865425521</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>1.850455358173517</c:v>
+                  <c:v>1.6892318688047172</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>1.8504594564089765</c:v>
+                  <c:v>1.6892358086828461</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>1.8504621410111097</c:v>
+                  <c:v>1.6892383895512135</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>1.8504618345236949</c:v>
+                  <c:v>1.689238094906546</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>1.850461513050409</c:v>
+                  <c:v>1.6892377858550693</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>1.8504613136405599</c:v>
+                  <c:v>1.6892375941504691</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>1.8504615315194197</c:v>
+                  <c:v>1.6892378036104321</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>1.8504613586932031</c:v>
+                  <c:v>1.6892376374622637</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>1.8504611116215213</c:v>
+                  <c:v>1.689237399937499</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>1.850461718436663</c:v>
+                  <c:v>1.6892379833051465</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>1.850461563756379</c:v>
+                  <c:v>1.6892378346017476</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>1.8504615532023587</c:v>
+                  <c:v>1.6892378244555371</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>1.8504612770226017</c:v>
+                  <c:v>1.6892375589474375</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>1.8504612112011427</c:v>
+                  <c:v>1.6892374956693355</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>1.8504599681451996</c:v>
+                  <c:v>1.6892363006454254</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>1.8504619984959447</c:v>
+                  <c:v>1.6892382525428686</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>1.850461686813279</c:v>
+                  <c:v>1.6892379529036978</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>1.8504622006189633</c:v>
+                  <c:v>1.6892384468558057</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>1.8504612162825385</c:v>
+                  <c:v>1.6892375005543863</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>1.8504617135275745</c:v>
+                  <c:v>1.6892379785857448</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>1.8504610854965684</c:v>
+                  <c:v>1.6892373748220209</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>1.8504616023165881</c:v>
+                  <c:v>1.6892378716719803</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>1.8504617809056567</c:v>
+                  <c:v>1.6892380433603222</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>1.850461601798572</c:v>
+                  <c:v>1.6892378711739815</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>1.8504610836324673</c:v>
+                  <c:v>1.6892373730299497</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>1.850461291420316</c:v>
+                  <c:v>1.6892375727888209</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>1.8504611028764888</c:v>
+                  <c:v>1.6892373915303758</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>1.8504619316484927</c:v>
+                  <c:v>1.6892381882784173</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>1.8504617507986971</c:v>
+                  <c:v>1.6892380144167034</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>1.8518014944169696</c:v>
+                  <c:v>1.6905260147661181</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>1.8504622068398151</c:v>
+                  <c:v>1.6892384528362818</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>1.8504618144243103</c:v>
+                  <c:v>1.6892380755838063</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>1.85046203974201</c:v>
+                  <c:v>1.6892382921951743</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>1.8504620067784843</c:v>
+                  <c:v>1.6892382605053688</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>1.8504619532072242</c:v>
+                  <c:v>1.689238209004116</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>1.85046198919984</c:v>
+                  <c:v>1.6892382436059663</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>1.8504616578857056</c:v>
+                  <c:v>1.6892379250938938</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>1.8504618763094052</c:v>
+                  <c:v>1.6892381350776475</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>1.8504616342960682</c:v>
+                  <c:v>1.6892379024157655</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>1.8504620730625005</c:v>
+                  <c:v>1.6892383242281537</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>1.8504622669343185</c:v>
+                  <c:v>1.6892385106087184</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>1.8504617107337633</c:v>
+                  <c:v>1.6892379758998877</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>1.8504616230159285</c:v>
+                  <c:v>1.6892378915714921</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>1.8504616420354933</c:v>
+                  <c:v>1.6892379098561368</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>1.8504618478436505</c:v>
+                  <c:v>1.6892381077118153</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>1.8504618955598757</c:v>
+                  <c:v>1.689238153584274</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>1.8504617886141446</c:v>
+                  <c:v>1.6892380507709526</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>1.8504617704109787</c:v>
+                  <c:v>1.6892380332711607</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>1.8504616686041395</c:v>
+                  <c:v>1.6892379353981637</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>1.850461997987116</c:v>
+                  <c:v>1.6892382520537008</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>1.8504469997157125</c:v>
+                  <c:v>1.6892238333222453</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>1.8504621895947784</c:v>
+                  <c:v>1.6892384362575958</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>1.8504619355481555</c:v>
+                  <c:v>1.689238192027398</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>1.8504611566782121</c:v>
+                  <c:v>1.6892374432531869</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>1.8504553102874417</c:v>
+                  <c:v>1.6892318227689807</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>1.850461639046338</c:v>
+                  <c:v>1.6892379069824832</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>1.8504594812445176</c:v>
+                  <c:v>1.6892358325587342</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>1.8504621118660984</c:v>
+                  <c:v>1.6892383615323714</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>1.850461925180358</c:v>
+                  <c:v>1.6892381820602136</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>1.8504618909857371</c:v>
+                  <c:v>1.6892381491868815</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>1.8504611499296002</c:v>
+                  <c:v>1.6892374367653429</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>1.850461993678703</c:v>
+                  <c:v>1.689238247911766</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>1.8504603997198348</c:v>
+                  <c:v>1.6892367155438899</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>1.8504618592362199</c:v>
+                  <c:v>1.6892381186641736</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>1.8504619782995513</c:v>
+                  <c:v>1.6892382331268689</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>1.8504619267506555</c:v>
+                  <c:v>1.6892381835698338</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>1.8504618570495011</c:v>
+                  <c:v>1.6892381165619488</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>1.8504618305989669</c:v>
+                  <c:v>1.6892380911334699</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>1.8504610178492684</c:v>
+                  <c:v>1.68923730978863</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>1.8504620090096133</c:v>
+                  <c:v>1.6892382626502875</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>1.8504623128151552</c:v>
+                  <c:v>1.6892385547167099</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>1.8504622272394959</c:v>
+                  <c:v>1.6892384724477136</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>1.8504614102381467</c:v>
+                  <c:v>1.6892376870154993</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>1.8504617307792288</c:v>
+                  <c:v>1.6892379951707923</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>1.8504616191342074</c:v>
+                  <c:v>1.6892378878397616</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>1.8504615262681534</c:v>
+                  <c:v>1.6892377985620759</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>1.8504618136394213</c:v>
+                  <c:v>1.6892380748292453</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>1.8504619846700225</c:v>
+                  <c:v>1.6892382392511838</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>1.8504614217234368</c:v>
+                  <c:v>1.6892376980569945</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>1.8504617730581696</c:v>
+                  <c:v>1.6892380358160635</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>1.8504617634790124</c:v>
+                  <c:v>1.6892380266070479</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>1.8504618566053292</c:v>
+                  <c:v>1.6892381161349401</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>1.8504616407199728</c:v>
+                  <c:v>1.6892379085914482</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>1.8504616430639931</c:v>
+                  <c:v>1.6892379108448954</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>1.8504599971863493</c:v>
+                  <c:v>1.6892363285644172</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>1.8504621085639068</c:v>
+                  <c:v>1.6892383583577777</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>1.8504617569129429</c:v>
+                  <c:v>1.6892380202946922</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>1.8504610416658263</c:v>
+                  <c:v>1.6892373326849104</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>1.8504616002601926</c:v>
+                  <c:v>1.6892378696950439</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>1.8504620046995373</c:v>
+                  <c:v>1.689238258506752</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>1.8504600518891967</c:v>
+                  <c:v>1.6892363811535298</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>1.8504613714163085</c:v>
+                  <c:v>1.6892376496937451</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>1.8504615034451666</c:v>
+                  <c:v>1.6892377766209756</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>1.8504617917614059</c:v>
+                  <c:v>1.6892380537966021</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>1.8504616126749649</c:v>
+                  <c:v>1.6892378816301068</c:v>
                 </c:pt>
                 <c:pt idx="583">
-                  <c:v>1.8504617724751122</c:v>
+                  <c:v>1.6892380352555361</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>1.8504615400984687</c:v>
+                  <c:v>1.6892378118579849</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>1.8504618620805307</c:v>
+                  <c:v>1.689238121398579</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>1.8504620421750859</c:v>
+                  <c:v>1.6892382945342359</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>1.8504621024263925</c:v>
+                  <c:v>1.6892383524574175</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>1.8504617729209258</c:v>
+                  <c:v>1.6892380356841232</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>1.8504614523563192</c:v>
+                  <c:v>1.6892377275062136</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>1.8504609689055538</c:v>
+                  <c:v>1.6892372627361134</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>1.8504616889510659</c:v>
+                  <c:v>1.6892379549588792</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>1.8504547693172684</c:v>
+                  <c:v>1.6892313027021304</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>1.850462095964134</c:v>
+                  <c:v>1.6892383462448635</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>1.850461971425345</c:v>
+                  <c:v>1.6892382265182844</c:v>
                 </c:pt>
                 <c:pt idx="595">
-                  <c:v>1.8511305137554812</c:v>
+                  <c:v>1.6898809423759822</c:v>
                 </c:pt>
                 <c:pt idx="596">
-                  <c:v>1.8504616499657633</c:v>
+                  <c:v>1.6892379174799792</c:v>
                 </c:pt>
                 <c:pt idx="597">
-                  <c:v>1.8504614154900934</c:v>
+                  <c:v>1.6892376920645091</c:v>
                 </c:pt>
                 <c:pt idx="598">
-                  <c:v>1.8504618699431781</c:v>
+                  <c:v>1.6892381289574123</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>1.850462067001506</c:v>
+                  <c:v>1.6892383184013582</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>1.8571911089963036</c:v>
+                  <c:v>1.6957079726019724</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>1.8681040933805702</c:v>
+                  <c:v>1.7062029339328966</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>1.8798995331438488</c:v>
+                  <c:v>1.7175502100903417</c:v>
                 </c:pt>
                 <c:pt idx="603">
-                  <c:v>1.8904839101048536</c:v>
+                  <c:v>1.7277356577040195</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>1.8997950286511727</c:v>
+                  <c:v>1.7366983416594084</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>1.9077765717156459</c:v>
+                  <c:v>1.7443830624738985</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>1.9158535199185718</c:v>
+                  <c:v>1.7521613789815591</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>1.9217890091377849</c:v>
+                  <c:v>1.7578785241522457</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>1.930035054808567</c:v>
+                  <c:v>1.765822785284602</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>1.9383825178343737</c:v>
+                  <c:v>1.7738665884958043</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>1.9476065881433724</c:v>
+                  <c:v>1.7827572499667499</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>1.9585266863291004</c:v>
+                  <c:v>1.7932855261719123</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>1.9696197063041909</c:v>
+                  <c:v>1.8039837123237601</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>1.9833367468477512</c:v>
+                  <c:v>1.8172169464069876</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>1.996495260985891</c:v>
+                  <c:v>1.8299159230912021</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>2.0056859702462155</c:v>
+                  <c:v>1.8387883023012284</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>2.0149969908766798</c:v>
+                  <c:v>1.8477790279809398</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>2.02270840731844</c:v>
+                  <c:v>1.8552268463003161</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>2.0278950431270806</c:v>
+                  <c:v>1.8602370368782739</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>2.0366244941612277</c:v>
+                  <c:v>1.8686710549292525</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>2.0436827290793116</c:v>
+                  <c:v>1.8754918206429778</c:v>
                 </c:pt>
                 <c:pt idx="621">
-                  <c:v>2.0535071398163947</c:v>
+                  <c:v>1.8849877782920965</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>2.0625538646368495</c:v>
+                  <c:v>1.8937341844534628</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>2.0735592442881217</c:v>
+                  <c:v>1.904376971764272</c:v>
                 </c:pt>
                 <c:pt idx="624">
-                  <c:v>2.0837959141098907</c:v>
+                  <c:v>1.9142790696755614</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>2.0951268626042716</c:v>
+                  <c:v>1.925242693834966</c:v>
                 </c:pt>
                 <c:pt idx="626">
-                  <c:v>2.10566887032939</c:v>
+                  <c:v>1.9354457817262125</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>2.116360904360401</c:v>
+                  <c:v>1.9457968442959195</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>2.1272108880542673</c:v>
+                  <c:v>1.9563036591971086</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>2.1392283554622038</c:v>
+                  <c:v>1.9679443542246684</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>2.1493892707867754</c:v>
+                  <c:v>1.9777894149234752</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>2.1596889161676072</c:v>
+                  <c:v>1.987771416310671</c:v>
                 </c:pt>
                 <c:pt idx="632">
-                  <c:v>2.1690794666292539</c:v>
+                  <c:v>1.9968745636423157</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>2.1796496275320285</c:v>
+                  <c:v>2.0071237227709675</c:v>
                 </c:pt>
                 <c:pt idx="634">
-                  <c:v>2.1860616724979258</c:v>
+                  <c:v>2.0133423298051025</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>2.1914471596398029</c:v>
+                  <c:v>2.0185660968376098</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>2.2045253858176577</c:v>
+                  <c:v>2.0312544340581122</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>2.2178278391588497</c:v>
+                  <c:v>2.0441644157212835</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>2.2370653987162781</c:v>
+                  <c:v>2.062841665650772</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>2.2556117622315419</c:v>
+                  <c:v>2.0808559304553529</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>2.274599196924433</c:v>
+                  <c:v>2.0993067633891616</c:v>
                 </c:pt>
                 <c:pt idx="641">
-                  <c:v>2.289141630519048</c:v>
+                  <c:v>2.1134437516812463</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>2.3051952429949987</c:v>
+                  <c:v>2.1290553261463883</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>2.329243100431893</c:v>
+                  <c:v>2.1524518173033229</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>2.3513724973795838</c:v>
+                  <c:v>2.1739931533986114</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>2.3714001122177533</c:v>
+                  <c:v>2.1934978469685338</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>2.390536098874477</c:v>
+                  <c:v>2.2121423692841917</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>2.4058808433227439</c:v>
+                  <c:v>2.2270987498297483</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>2.4058811536934699</c:v>
+                  <c:v>2.2270990523965777</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>4.1213964243994079</c:v>
+                  <c:v>3.9257814624866358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5209,13 +5209,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0AFBC6-9FD1-C04F-A0AC-D435B119290F}">
   <dimension ref="A1:C656"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.1</v>
       </c>
@@ -5223,8 +5223,8 @@
         <v>8971.7399999999907</v>
       </c>
       <c r="C1">
-        <f>585.23*B1^-0.546</f>
-        <v>4.0649566068688321</v>
+        <f>725.31*B1^-0.575</f>
+        <v>3.869185705445668</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5235,8 +5235,8 @@
         <v>9172.7408812800004</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">585.23*B2^-0.546</f>
-        <v>4.016077253378973</v>
+        <f t="shared" ref="C2:C65" si="0">725.31*B2^-0.575</f>
+        <v>3.8202049951194179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>3.9344037949186554</v>
+        <v>3.7384329948412405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.884320154536157</v>
+        <v>3.6883333870978521</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>3.841285516180255</v>
+        <v>3.6453124106715706</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>3.7691190777932477</v>
+        <v>3.5732264636384059</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3.7247061523930873</v>
+        <v>3.5288994133056311</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.6817437685032717</v>
+        <v>3.4860468014609625</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>3.6176183180482493</v>
+        <v>3.4221346785843978</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>3.5780285205212503</v>
+        <v>3.3827065502603504</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>3.5354478154058837</v>
+        <v>3.3403255910763341</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3.4821808325417809</v>
+        <v>3.2873466793658062</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>3.4466083357983011</v>
+        <v>3.2519904846191889</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3.4120459039042355</v>
+        <v>3.2176567705055468</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>3.4082659543825273</v>
+        <v>3.2139029520002285</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>3.3601814243342774</v>
+        <v>3.1661702099884845</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>3.3244738873061599</v>
+        <v>3.1307473489013784</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>3.2932396546919009</v>
+        <v>3.0997786869277633</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5440,7 +5440,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>3.2495564746767887</v>
+        <v>3.0564931167643432</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>3.220258478926934</v>
+        <v>3.0274790803834883</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3.1885668209695885</v>
+        <v>2.9961103669638618</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3.1486586775375289</v>
+        <v>2.9566324653690015</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>3.1218447090023496</v>
+        <v>2.9301224756685982</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>3.0927970239244122</v>
+        <v>2.9014177393096885</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>3.0561551529498776</v>
+        <v>2.8652289121600676</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>3.0287912454065049</v>
+        <v>2.8382183470765554</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>3.00474810288889</v>
+        <v>2.8144963581041078</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>2.9709544295827373</v>
+        <v>2.7811711378756891</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>2.9456797188925479</v>
+        <v>2.7562599335152251</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>2.9234457024362066</v>
+        <v>2.7343550725718564</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>2.8897851179370955</v>
+        <v>2.7012096599045594</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>2.8687172973226267</v>
+        <v>2.6804746965880462</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>2.8480786501559217</v>
+        <v>2.6601699667620178</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>2.8167938383589384</v>
+        <v>2.6294062356683119</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5632,7 +5632,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>2.7971889184314391</v>
+        <v>2.6101370907094239</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>2.7674461659223391</v>
+        <v>2.5809174540704798</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>2.7487923849280524</v>
+        <v>2.5626002537345909</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>2.7304902819860248</v>
+        <v>2.5446348012356501</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>2.7026940657279117</v>
+        <v>2.5173621156259824</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>2.6968413580515187</v>
+        <v>2.5116215346758315</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>2.681407853226327</v>
+        <v>2.4964868828671252</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>2.6549908347051381</v>
+        <v>2.4705921510560467</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>2.6383927922540393</v>
+        <v>2.4543292562665395</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>2.6220852358642039</v>
+        <v>2.4383562732012476</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>2.5972758891696759</v>
+        <v>2.4140660548199806</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>2.5816738353812148</v>
+        <v>2.3987967727328949</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>2.5579230271818378</v>
+        <v>2.3755619561044834</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>2.5429775814239215</v>
+        <v>2.3609470696023198</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>2.5282761444978687</v>
+        <v>2.3465752452134101</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>2.5186080946754736</v>
+        <v>2.3371263746336384</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>2.5186052051420913</v>
+        <v>2.3371235508949351</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>2.5186052043939049</v>
+        <v>2.3371235501637866</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>2.517002754635985</v>
+        <v>2.3355576147011936</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>2.5170024401288233</v>
+        <v>2.3355573073657596</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -5872,7 +5872,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>2.5170017149842026</v>
+        <v>2.3355565987566691</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>2.5170001774065205</v>
+        <v>2.3355550962405278</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>2.5169995634979769</v>
+        <v>2.3355544963310182</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>2.5169982777897419</v>
+        <v>2.3355532399409715</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -5920,7 +5920,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>2.5169973975706212</v>
+        <v>2.3355523797936328</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>2.5169966982091849</v>
+        <v>2.3355516963798619</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>2.5169922285345852</v>
+        <v>2.3355473286283073</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>2.5169953745458309</v>
+        <v>2.3355504029002736</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>2.5027138767181207</v>
+        <v>2.3215966758593503</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>2.5027121927544989</v>
+        <v>2.3215950307928019</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>2.5090304665924279</v>
+        <v>2.3277677752126951</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -6003,8 +6003,8 @@
         <v>21735.541232896001</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C129" si="1">585.23*B66^-0.546</f>
-        <v>2.507445545651779</v>
+        <f t="shared" ref="C66:C129" si="1">725.31*B66^-0.575</f>
+        <v>2.3262192822526409</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>2.5074460095618374</v>
+        <v>2.3262197354925411</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>2.507445452355114</v>
+        <v>2.3262191911018468</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>2.5074464355477888</v>
+        <v>2.3262201516806087</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>2.5074461680353646</v>
+        <v>2.3262198903211004</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>2.5058642540512652</v>
+        <v>2.3246743870228026</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>2.5074464908789875</v>
+        <v>2.3262202057391663</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>2.5074460106107108</v>
+        <v>2.326219736517289</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>2.5074464568511678</v>
+        <v>2.3262201724940019</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>2.5074449566296728</v>
+        <v>2.3262187067783398</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -6124,7 +6124,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>2.5058651227688054</v>
+        <v>2.3246752357309797</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>2.5090297175390859</v>
+        <v>2.3277670433633961</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>2.5137987932565777</v>
+        <v>2.3324268193424094</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>2.51379939759684</v>
+        <v>2.3324274098619115</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>2.5137996645124292</v>
+        <v>2.3324276706733675</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>2.5153947159964343</v>
+        <v>2.3339862709364678</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>2.5137993945817074</v>
+        <v>2.3324274069157336</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>2.5137979569394671</v>
+        <v>2.3324260021511849</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>2.513798562805484</v>
+        <v>2.3324265941615412</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>2.5137976131687232</v>
+        <v>2.3324256662422007</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>2.5201977030446172</v>
+        <v>2.3386798136975968</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>2.5153931308209216</v>
+        <v>2.3339847219604195</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>2.5122062072442288</v>
+        <v>2.3308706806415218</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>2.509028942850112</v>
+        <v>2.3277662864672668</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>2.510615396987756</v>
+        <v>2.3293163293651298</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>2.5106165462586101</v>
+        <v>2.3293174522775471</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>2.5090288314200224</v>
+        <v>2.3277661775964753</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>2.5106154706815587</v>
+        <v>2.3293164013687715</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>2.5137970427428815</v>
+        <v>2.3324251088615426</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>2.525025977979857</v>
+        <v>2.3433985469973657</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>2.5169889536520471</v>
+        <v>2.3355441284239484</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>2.5169916219456958</v>
+        <v>2.3355467358716404</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>2.5250254946333084</v>
+        <v>2.3433980745927561</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>2.5250267595081213</v>
+        <v>2.3433993108335005</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>2.5250267821990802</v>
+        <v>2.3433993330107872</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>2.516992479835245</v>
+        <v>2.3355475741984861</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>2.516992377500948</v>
+        <v>2.3355474741977482</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>2.5169921645747588</v>
+        <v>2.3355472661269734</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>2.5169925042859704</v>
+        <v>2.3355475980916562</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>2.5169925217437834</v>
+        <v>2.3355476151513734</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>2.5169920470412799</v>
+        <v>2.3355471512736452</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>2.516993416645084</v>
+        <v>2.3355484896460026</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>2.5169911761361221</v>
+        <v>2.3355463002279953</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>2.5169918730246681</v>
+        <v>2.3355469812251832</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>2.5169921449636732</v>
+        <v>2.335547246963086</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>2.5153953678209442</v>
+        <v>2.3339869078757642</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -6556,7 +6556,7 @@
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>2.5153940743749117</v>
+        <v>2.3339856439671691</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>2.5106166908882481</v>
+        <v>2.3293175935901176</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>2.5106150662940103</v>
+        <v>2.3293160062558265</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>2.5106152243707931</v>
+        <v>2.3293161607071262</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>2.5106144984310528</v>
+        <v>2.3293154514167749</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>2.5106128996869232</v>
+        <v>2.3293138893397964</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>2.5106102611418373</v>
+        <v>2.3293113113097776</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>2.5106103601664174</v>
+        <v>2.3293114080632247</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>2.5106105958741551</v>
+        <v>2.329311638364997</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>2.5106085790023136</v>
+        <v>2.3293096677502234</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>2.5106079963242234</v>
+        <v>2.3293090984359015</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>2.5106061685938075</v>
+        <v>2.3293073126246777</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>2.5106040805341583</v>
+        <v>2.3293052724549859</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>2.5090191928523438</v>
+        <v>2.3277567604058711</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>2.504275809487535</v>
+        <v>2.3231225555991708</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>2.504272165879398</v>
+        <v>2.3231189960351215</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>2.5042735741411728</v>
+        <v>2.3231203718136575</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>2.5058514913704228</v>
+        <v>2.3246619183094217</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -6771,8 +6771,8 @@
         <v>21760.8991887786</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C193" si="2">585.23*B130^-0.546</f>
-        <v>2.5058497528991657</v>
+        <f t="shared" ref="C130:C193" si="2">725.31*B130^-0.575</f>
+        <v>2.3246602198812676</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="C131">
         <f t="shared" si="2"/>
-        <v>2.5042707586587247</v>
+        <v>2.323117621273719</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>2.5058481612215169</v>
+        <v>2.3246586648656011</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>2.5042682939283898</v>
+        <v>2.3231152133955018</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>2.509011781140885</v>
+        <v>2.3277495189267192</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>2.5074280327839777</v>
+        <v>2.3262021721926649</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>2.5074282439682056</v>
+        <v>2.3262023785194765</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>2.5074284394222142</v>
+        <v>2.3262025694778745</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>2.5074284113980188</v>
+        <v>2.3262025420982599</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>2.5074295583894002</v>
+        <v>2.3262036627078753</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>2.5137812536025712</v>
+        <v>2.3324096808089503</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>2.5137811604605549</v>
+        <v>2.3324095897970492</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>2.5090142068939914</v>
+        <v>2.3277518889649644</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>2.5074262392725259</v>
+        <v>2.3262004199335511</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>2.5074284958911197</v>
+        <v>2.3262026246479484</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>2.5058468404849523</v>
+        <v>2.3246573745503261</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>2.5058473269966064</v>
+        <v>2.3246578498558712</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>2.5058459838909224</v>
+        <v>2.3246565376867414</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>2.5058458028656396</v>
+        <v>2.3246563608311237</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>2.5074276190407678</v>
+        <v>2.3262017679659075</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>2.5090115950291971</v>
+        <v>2.3277493370896627</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>2.5090116920305929</v>
+        <v>2.3277494318631193</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>2.5105981501236792</v>
+        <v>2.3292994780598351</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>2.5105976613551286</v>
+        <v>2.3292990005013374</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -7060,7 +7060,7 @@
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>2.510597477031669</v>
+        <v>2.3292988204053926</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>2.5105976873764759</v>
+        <v>2.3292990259258772</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>2.5105976882356962</v>
+        <v>2.3292990267653915</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>2.5105966526838204</v>
+        <v>2.3292980149642188</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>2.5090099360825473</v>
+        <v>2.3277477162458862</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>2.5105952717669111</v>
+        <v>2.329296665719105</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>2.5105983444363802</v>
+        <v>2.3292996679159179</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>2.5105987445686719</v>
+        <v>2.3293000588710639</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>2.5121870059608815</v>
+        <v>2.3308519191109673</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>2.5121873941480444</v>
+        <v>2.3308522984076934</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>2.5137798680911696</v>
+        <v>2.3324083269835705</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>2.5137797747955988</v>
+        <v>2.3324082358216285</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>2.5121877232989376</v>
+        <v>2.3308526200202246</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>2.5137807979042379</v>
+        <v>2.3324092355322286</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>2.5137790601238783</v>
+        <v>2.3324075374941438</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
-        <v>2.5121849735207906</v>
+        <v>2.3308499332187962</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>2.5137792306121693</v>
+        <v>2.3324077040834394</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>2.5121861583522915</v>
+        <v>2.3308510909147069</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
-        <v>2.5137764212963032</v>
+        <v>2.3324049590155189</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>2.513778863860606</v>
+        <v>2.3324073457193308</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>2.5121869455256411</v>
+        <v>2.3308518600598434</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>2.5121879357030124</v>
+        <v>2.3308528275597262</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>2.5121879196577304</v>
+        <v>2.3308528118819214</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>2.5121876581498017</v>
+        <v>2.3308525563631628</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>2.5121882191709197</v>
+        <v>2.330853104535529</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>2.5121888670801917</v>
+        <v>2.3308537376061045</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>2.5121880927674818</v>
+        <v>2.3308529810270358</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>2.5121840747658801</v>
+        <v>2.3308490550476297</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>2.5090092985251338</v>
+        <v>2.327747093331979</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>2.5090095513729653</v>
+        <v>2.3277473403723654</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>2.509007874826191</v>
+        <v>2.3277457023327806</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>2.5090063488972771</v>
+        <v>2.3277442114516891</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>2.5090064887301908</v>
+        <v>2.3277443480728923</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>2.5090049651843356</v>
+        <v>2.327742859520169</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>2.5026869875374742</v>
+        <v>2.3215704077861083</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>2.5026853870891212</v>
+        <v>2.3215688443066416</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>2.5026846574552204</v>
+        <v>2.321568131526631</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>2.5026827726972267</v>
+        <v>2.3215662903049097</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
-        <v>2.5026826485676485</v>
+        <v>2.321566169042621</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
-        <v>2.5026832189445556</v>
+        <v>2.3215667262443063</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -7539,8 +7539,8 @@
         <v>21811.345312539001</v>
       </c>
       <c r="C194">
-        <f t="shared" ref="C194:C257" si="3">585.23*B194^-0.546</f>
-        <v>2.5026836777068913</v>
+        <f t="shared" ref="C194:C257" si="3">725.31*B194^-0.575</f>
+        <v>2.321567174409628</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="C195">
         <f t="shared" si="3"/>
-        <v>2.5074188719991128</v>
+        <v>2.3261932221145885</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="C196">
         <f t="shared" si="3"/>
-        <v>2.5058379010865184</v>
+        <v>2.324648641059174</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="C197">
         <f t="shared" si="3"/>
-        <v>2.5042597072021437</v>
+        <v>2.3231068247339333</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C198">
         <f t="shared" si="3"/>
-        <v>2.502684169743767</v>
+        <v>2.3215676550808815</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>2.5026840571218076</v>
+        <v>2.3215675450603896</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
-        <v>2.5026840231101644</v>
+        <v>2.3215675118343864</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
-        <v>2.491733318593333</v>
+        <v>2.3108710038281393</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
-        <v>2.476322741796988</v>
+        <v>2.2958223807893905</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
-        <v>2.4566858306774368</v>
+        <v>2.276653898969621</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
-        <v>2.4433473405553947</v>
+        <v>2.2636382288403682</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
-        <v>2.4404106139189077</v>
+        <v>2.2607730834388744</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
-        <v>2.4287650952414519</v>
+        <v>2.2494132233311497</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
-        <v>2.4087569086160654</v>
+        <v>2.2299025889141779</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
-        <v>2.4059364701707988</v>
+        <v>2.2271529780412429</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>2.3864519072398527</v>
+        <v>2.2081624032542138</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>2.3728052525561281</v>
+        <v>2.1948666284237643</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>2.3553909364909384</v>
+        <v>2.1779059658450968</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>2.3514232270655935</v>
+        <v>2.1740425474174341</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>2.3435448447708351</v>
+        <v>2.1663722747434626</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
-        <v>2.3409350900132204</v>
+        <v>2.1638317591070289</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
-        <v>2.3305775812153846</v>
+        <v>2.1537505290051806</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
-        <v>2.3140210181742598</v>
+        <v>2.137640545520564</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
-        <v>2.3015095107937027</v>
+        <v>2.1254705688185709</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
-        <v>2.2904110182515707</v>
+        <v>2.1146779755004306</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
-        <v>2.2746453932511903</v>
+        <v>2.099351664171103</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
-        <v>2.2627247509465431</v>
+        <v>2.0877669371917262</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
-        <v>2.2521455531561241</v>
+        <v>2.0774885678366002</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
-        <v>2.2359647222345371</v>
+        <v>2.0617728164726605</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
-        <v>2.2257348400068664</v>
+        <v>2.0518400814227564</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
-        <v>2.2100821074421959</v>
+        <v>2.036646710039931</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
-        <v>2.2001823149521869</v>
+        <v>2.0270403945457343</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -7924,7 +7924,7 @@
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
-        <v>2.199090152388373</v>
+        <v>2.0259807492954525</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
-        <v>2.1904073306487013</v>
+        <v>2.0175574395711013</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
-        <v>2.1754435696096852</v>
+        <v>2.0030450802991751</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
-        <v>2.1659746504698578</v>
+        <v>1.993864540067263</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
-        <v>2.1555906076425915</v>
+        <v>1.9837991972297744</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
-        <v>2.1423001638851749</v>
+        <v>1.9709204133155143</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
-        <v>2.1332324340267017</v>
+        <v>1.962135981907372</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
-        <v>2.1232843804968184</v>
+        <v>1.952501011794018</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -8020,7 +8020,7 @@
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
-        <v>2.1105464549363755</v>
+        <v>1.9401674735970622</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
-        <v>2.1018532701625734</v>
+        <v>1.9317525370335784</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
-        <v>2.0923122693691312</v>
+        <v>1.9225190488450858</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
-        <v>2.0791591968441403</v>
+        <v>1.9097935764706355</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
-        <v>2.070825010100227</v>
+        <v>1.901732541191973</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
-        <v>2.0625855107564126</v>
+        <v>1.8937647836175941</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
-        <v>2.0507659695111728</v>
+        <v>1.8823380085316435</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
-        <v>2.0419443764137593</v>
+        <v>1.8738118372972403</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
-        <v>2.0296627974009454</v>
+        <v>1.861944809166767</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
-        <v>2.0201589363419266</v>
+        <v>1.8527643563217029</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
-        <v>2.0082429755938325</v>
+        <v>1.8412571274432585</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
-        <v>2.000686941958862</v>
+        <v>1.8339621522345624</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
-        <v>1.9890899964656319</v>
+        <v>1.8227687253235763</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
-        <v>1.9874512639433943</v>
+        <v>1.8211872919288699</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
-        <v>1.9825512904951024</v>
+        <v>1.8164590619332459</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
-        <v>1.9817371979550908</v>
+        <v>1.8156735633190295</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
-        <v>1.9817368989573951</v>
+        <v>1.8156732748263822</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="C251">
         <f t="shared" si="3"/>
-        <v>1.981735827660229</v>
+        <v>1.8156722411684105</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="C252">
         <f t="shared" si="3"/>
-        <v>1.981734937982812</v>
+        <v>1.8156713827491453</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="C253">
         <f t="shared" si="3"/>
-        <v>1.9760668462659003</v>
+        <v>1.810202851037469</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="C254">
         <f t="shared" si="3"/>
-        <v>1.9752621103709977</v>
+        <v>1.809426515457693</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="C255">
         <f t="shared" si="3"/>
-        <v>1.9752609886831198</v>
+        <v>1.8094254333675552</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="C256">
         <f t="shared" si="3"/>
-        <v>1.9696454867929942</v>
+        <v>1.8040085789422684</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="C257">
         <f t="shared" si="3"/>
-        <v>1.9688471170819122</v>
+        <v>1.8032385179727055</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -8307,8 +8307,8 @@
         <v>33821.381585615403</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C321" si="4">585.23*B258^-0.546</f>
-        <v>1.9696456751240996</v>
+        <f t="shared" ref="C258:C321" si="4">725.31*B258^-0.575</f>
+        <v>1.80400876059745</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C259">
         <f t="shared" si="4"/>
-        <v>1.9728344606796897</v>
+        <v>1.8070846429037597</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="C260">
         <f t="shared" si="4"/>
-        <v>1.9696468484575214</v>
+        <v>1.804009892338805</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="C261">
         <f t="shared" si="4"/>
-        <v>1.968049862805632</v>
+        <v>1.8024695494369982</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C262">
         <f t="shared" si="4"/>
-        <v>1.9624924565749182</v>
+        <v>1.7971097740999185</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="C263">
         <f t="shared" si="4"/>
-        <v>1.9617006797833132</v>
+        <v>1.7963462198022195</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="C264">
         <f t="shared" si="4"/>
-        <v>1.9617013359643907</v>
+        <v>1.7963468525872675</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="C265">
         <f t="shared" si="4"/>
-        <v>1.9624908526270688</v>
+        <v>1.7971082273074592</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -8404,7 +8404,7 @@
       </c>
       <c r="C266">
         <f t="shared" si="4"/>
-        <v>1.9664269664360456</v>
+        <v>1.8009042828437907</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -8416,7 +8416,7 @@
       </c>
       <c r="C267">
         <f t="shared" si="4"/>
-        <v>1.9696430285550166</v>
+        <v>1.8040062078435017</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="C268">
         <f t="shared" si="4"/>
-        <v>1.9704423914202038</v>
+        <v>1.8047772433102951</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="C269">
         <f t="shared" si="4"/>
-        <v>1.9704423694497768</v>
+        <v>1.8047772221182172</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="C270">
         <f t="shared" si="4"/>
-        <v>1.9704428962118934</v>
+        <v>1.8047777302186936</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="C271">
         <f t="shared" si="4"/>
-        <v>1.9712429432566729</v>
+        <v>1.8055494422649541</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="C272">
         <f t="shared" si="4"/>
-        <v>1.9712427235469077</v>
+        <v>1.8055492303342908</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="C273">
         <f t="shared" si="4"/>
-        <v>1.971242638026548</v>
+        <v>1.8055491478418879</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="C274">
         <f t="shared" si="4"/>
-        <v>1.9704398606571334</v>
+        <v>1.80477480220485</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="C275">
         <f t="shared" si="4"/>
-        <v>1.9696355668225056</v>
+        <v>1.803999010614205</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="C276">
         <f t="shared" si="4"/>
-        <v>1.969642836559043</v>
+        <v>1.8040060226533752</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C277">
         <f t="shared" si="4"/>
-        <v>1.9696430386550055</v>
+        <v>1.8040062175854656</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="C278">
         <f t="shared" si="4"/>
-        <v>1.9696429463498124</v>
+        <v>1.8040061285522966</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="C279">
         <f t="shared" si="4"/>
-        <v>1.9728451451000473</v>
+        <v>1.8070949494719339</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="C280">
         <f t="shared" si="4"/>
-        <v>1.9720436343076071</v>
+        <v>1.8063217921645913</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="C281">
         <f t="shared" si="4"/>
-        <v>1.9728456847860116</v>
+        <v>1.8070954700721007</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C282">
         <f t="shared" si="4"/>
-        <v>1.9736483725809169</v>
+        <v>1.8078697794771732</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C283">
         <f t="shared" si="4"/>
-        <v>1.9776774958951371</v>
+        <v>1.8117567089007671</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="C284">
         <f t="shared" si="4"/>
-        <v>1.9792959420266643</v>
+        <v>1.8133181560650258</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="C285">
         <f t="shared" si="4"/>
-        <v>1.9825427174379378</v>
+        <v>1.8164507899041284</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="C286">
         <f t="shared" si="4"/>
-        <v>1.9817297314575706</v>
+        <v>1.8156663591516822</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="C287">
         <f t="shared" si="4"/>
-        <v>1.9817309064566102</v>
+        <v>1.8156674928678573</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="C288">
         <f t="shared" si="4"/>
-        <v>1.9817295017501972</v>
+        <v>1.8156661375149412</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="C289">
         <f t="shared" si="4"/>
-        <v>1.9825436903123306</v>
+        <v>1.8164517286176272</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="C290">
         <f t="shared" si="4"/>
-        <v>1.9825432838682588</v>
+        <v>1.8164513364451718</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="C291">
         <f t="shared" si="4"/>
-        <v>1.9825428207231754</v>
+        <v>1.8164508895626739</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C292">
         <f t="shared" si="4"/>
-        <v>1.9817293058864351</v>
+        <v>1.8156659485327358</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="C293">
         <f t="shared" si="4"/>
-        <v>1.9817286434934214</v>
+        <v>1.8156653094125128</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -8740,7 +8740,7 @@
       </c>
       <c r="C294">
         <f t="shared" si="4"/>
-        <v>1.9825425422782765</v>
+        <v>1.8164506208949149</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="C295">
         <f t="shared" si="4"/>
-        <v>1.9792960194990294</v>
+        <v>1.8133182308105664</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="C296">
         <f t="shared" si="4"/>
-        <v>1.9768704110794637</v>
+        <v>1.8109780736208005</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="C297">
         <f t="shared" si="4"/>
-        <v>1.9768696987817087</v>
+        <v>1.8109773864388181</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="C298">
         <f t="shared" si="4"/>
-        <v>1.9776782680030505</v>
+        <v>1.8117574538001537</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -8800,7 +8800,7 @@
       </c>
       <c r="C299">
         <f t="shared" si="4"/>
-        <v>1.9817272064478526</v>
+        <v>1.8156639228567424</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="C300">
         <f t="shared" si="4"/>
-        <v>1.9858064273911069</v>
+        <v>1.8196000375783306</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="C301">
         <f t="shared" si="4"/>
-        <v>1.9849901313344522</v>
+        <v>1.8188123442193482</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="C302">
         <f t="shared" si="4"/>
-        <v>1.9801076232974189</v>
+        <v>1.8141012768154934</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="C303">
         <f t="shared" si="4"/>
-        <v>1.9760572424298188</v>
+        <v>1.8101935860358924</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="C304">
         <f t="shared" si="4"/>
-        <v>1.9720432285878073</v>
+        <v>1.8063214008013757</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="C305">
         <f t="shared" si="4"/>
-        <v>1.9704432389578712</v>
+        <v>1.8047780608221899</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="C306">
         <f t="shared" si="4"/>
-        <v>1.9688454015113788</v>
+        <v>1.803236863251046</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C307">
         <f t="shared" si="4"/>
-        <v>1.9617015801970767</v>
+        <v>1.796347088111881</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="C308">
         <f t="shared" si="4"/>
-        <v>1.9546298825490958</v>
+        <v>1.7895281841740798</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="C309">
         <f t="shared" si="4"/>
-        <v>1.9437703639069566</v>
+        <v>1.7790594158009621</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="C310">
         <f t="shared" si="4"/>
-        <v>1.9384037655535218</v>
+        <v>1.7738870656271073</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="C311">
         <f t="shared" si="4"/>
-        <v>1.9315660253172497</v>
+        <v>1.7672979247855276</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="C312">
         <f t="shared" si="4"/>
-        <v>1.9300559040701804</v>
+        <v>1.7658428738038172</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="C313">
         <f t="shared" si="4"/>
-        <v>1.9240471582391256</v>
+        <v>1.7600538509912913</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="C314">
         <f t="shared" si="4"/>
-        <v>1.9077958800844745</v>
+        <v>1.7444016548653587</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C315">
         <f t="shared" si="4"/>
-        <v>1.8947842220271036</v>
+        <v>1.7318747554922942</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="C316">
         <f t="shared" si="4"/>
-        <v>1.8855417883681409</v>
+        <v>1.722979428500977</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="C317">
         <f t="shared" si="4"/>
-        <v>1.8778194863311948</v>
+        <v>1.71554891860827</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="C318">
         <f t="shared" si="4"/>
-        <v>1.8681184906932138</v>
+        <v>1.706216781910064</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="C319">
         <f t="shared" si="4"/>
-        <v>1.8633227645445887</v>
+        <v>1.7016043524796447</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="C320">
         <f t="shared" si="4"/>
-        <v>1.8565294451709431</v>
+        <v>1.6950717589997211</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="C321">
         <f t="shared" si="4"/>
-        <v>1.8504767803705049</v>
+        <v>1.6892524632452266</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -9075,8 +9075,8 @@
         <v>37916.943370663801</v>
       </c>
       <c r="C322">
-        <f t="shared" ref="C322:C385" si="5">585.23*B322^-0.546</f>
-        <v>1.8504765593146737</v>
+        <f t="shared" ref="C322:C385" si="5">725.31*B322^-0.575</f>
+        <v>1.6892522507309566</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="C323">
         <f t="shared" si="5"/>
-        <v>1.8504764376814757</v>
+        <v>1.6892521337976469</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="C324">
         <f t="shared" si="5"/>
-        <v>1.8504755500559988</v>
+        <v>1.6892512804698905</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="C325">
         <f t="shared" si="5"/>
-        <v>1.8504733322816658</v>
+        <v>1.6892491483901342</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="C326">
         <f t="shared" si="5"/>
-        <v>1.8504749752970973</v>
+        <v>1.689250727919601</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="C327">
         <f t="shared" si="5"/>
-        <v>1.8504747822056928</v>
+        <v>1.6892505422892254</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="C328">
         <f t="shared" si="5"/>
-        <v>1.8504743358035569</v>
+        <v>1.689250113136022</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="C329">
         <f t="shared" si="5"/>
-        <v>1.8504717360660721</v>
+        <v>1.6892476138522334</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="C330">
         <f t="shared" si="5"/>
-        <v>1.8504739066843301</v>
+        <v>1.6892497005979248</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="C331">
         <f t="shared" si="5"/>
-        <v>1.8504732834364686</v>
+        <v>1.6892491014323112</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="C332">
         <f t="shared" si="5"/>
-        <v>1.8504733399977276</v>
+        <v>1.6892491558080462</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="C333">
         <f t="shared" si="5"/>
-        <v>1.8504732007547351</v>
+        <v>1.6892490219453933</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -9220,7 +9220,7 @@
       </c>
       <c r="C334">
         <f t="shared" si="5"/>
-        <v>1.8504726327966832</v>
+        <v>1.6892484759332078</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="C335">
         <f t="shared" si="5"/>
-        <v>1.8504725113681535</v>
+        <v>1.6892483591966709</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="C336">
         <f t="shared" si="5"/>
-        <v>1.8504652974423319</v>
+        <v>1.6892414240173175</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C337">
         <f t="shared" si="5"/>
-        <v>1.8504694797997139</v>
+        <v>1.6892454447680187</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="C338">
         <f t="shared" si="5"/>
-        <v>1.8504712233744951</v>
+        <v>1.6892471209710496</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="C339">
         <f t="shared" si="5"/>
-        <v>1.8504706814497265</v>
+        <v>1.6892465999862518</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="C340">
         <f t="shared" si="5"/>
-        <v>1.8504700263292224</v>
+        <v>1.6892459701796101</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="C341">
         <f t="shared" si="5"/>
-        <v>1.850469350376664</v>
+        <v>1.6892453203458799</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="C342">
         <f t="shared" si="5"/>
-        <v>1.8504637785030666</v>
+        <v>1.6892399637701272</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="C343">
         <f t="shared" si="5"/>
-        <v>1.8504691880825477</v>
+        <v>1.6892451643228148</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="C344">
         <f t="shared" si="5"/>
-        <v>1.8504689972159243</v>
+        <v>1.6892449808312866</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="C345">
         <f t="shared" si="5"/>
-        <v>1.8504690733979396</v>
+        <v>1.6892450540696244</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -9364,7 +9364,7 @@
       </c>
       <c r="C346">
         <f t="shared" si="5"/>
-        <v>1.8504693352825081</v>
+        <v>1.689245305834963</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="C347">
         <f t="shared" si="5"/>
-        <v>1.8504692045777666</v>
+        <v>1.6892451801806576</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="C348">
         <f t="shared" si="5"/>
-        <v>1.8504692773062086</v>
+        <v>1.6892452500988693</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="C349">
         <f t="shared" si="5"/>
-        <v>1.851808078739329</v>
+        <v>1.6905323449125478</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="C350">
         <f t="shared" si="5"/>
-        <v>1.8531505343843315</v>
+        <v>1.691823002433948</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="C351">
         <f t="shared" si="5"/>
-        <v>1.8538229547690765</v>
+        <v>1.692469496411422</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="C352">
         <f t="shared" si="5"/>
-        <v>1.8544940133755834</v>
+        <v>1.6931146935338053</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="C353">
         <f t="shared" si="5"/>
-        <v>1.8531503167838732</v>
+        <v>1.6918227932254923</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="C354">
         <f t="shared" si="5"/>
-        <v>1.8504671616454698</v>
+        <v>1.6892432161874107</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="C355">
         <f t="shared" si="5"/>
-        <v>1.8511346987891237</v>
+        <v>1.6898849657763384</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="C356">
         <f t="shared" si="5"/>
-        <v>1.8511369723432112</v>
+        <v>1.6898871515220106</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="C357">
         <f t="shared" si="5"/>
-        <v>1.850466593962335</v>
+        <v>1.6892426704396146</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="C358">
         <f t="shared" si="5"/>
-        <v>1.8504660046935539</v>
+        <v>1.6892421039402521</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="C359">
         <f t="shared" si="5"/>
-        <v>1.8504656309704171</v>
+        <v>1.6892417446578285</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="C360">
         <f t="shared" si="5"/>
-        <v>1.8504649459004912</v>
+        <v>1.6892410860591067</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="C361">
         <f t="shared" si="5"/>
-        <v>1.8504644029206219</v>
+        <v>1.6892405640600736</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="C362">
         <f t="shared" si="5"/>
-        <v>1.8504644444518428</v>
+        <v>1.6892406039865211</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="C363">
         <f t="shared" si="5"/>
-        <v>1.8504622213534838</v>
+        <v>1.6892384667891378</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="C364">
         <f t="shared" si="5"/>
-        <v>1.8518044427842641</v>
+        <v>1.6905288493168444</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="C365">
         <f t="shared" si="5"/>
-        <v>1.8538191361479368</v>
+        <v>1.69246582498909</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="C366">
         <f t="shared" si="5"/>
-        <v>1.857869280263623</v>
+        <v>1.6963600711976106</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C367">
         <f t="shared" si="5"/>
-        <v>1.8592250435207003</v>
+        <v>1.6976637492793549</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="C368">
         <f t="shared" si="5"/>
-        <v>1.8646720372033008</v>
+        <v>1.7029019911209904</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="C369">
         <f t="shared" si="5"/>
-        <v>1.8674146995945318</v>
+        <v>1.705539850889537</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="C370">
         <f t="shared" si="5"/>
-        <v>1.8653597209393242</v>
+        <v>1.7035633777387702</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -9664,7 +9664,7 @@
       </c>
       <c r="C371">
         <f t="shared" si="5"/>
-        <v>1.864675663020475</v>
+        <v>1.7029054782524609</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="C372">
         <f t="shared" si="5"/>
-        <v>1.8619446962399826</v>
+        <v>1.7002790716616529</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="C373">
         <f t="shared" si="5"/>
-        <v>1.8605828806596103</v>
+        <v>1.6989694721788284</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="C374">
         <f t="shared" si="5"/>
-        <v>1.8558412556069148</v>
+        <v>1.6944100527213251</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="C375">
         <f t="shared" si="5"/>
-        <v>1.8504638681140702</v>
+        <v>1.6892400499185436</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="C376">
         <f t="shared" si="5"/>
-        <v>1.8504626500976977</v>
+        <v>1.6892388789665767</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="C377">
         <f t="shared" si="5"/>
-        <v>1.8504639874749089</v>
+        <v>1.6892401646672577</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="C378">
         <f t="shared" si="5"/>
-        <v>1.8504641605890042</v>
+        <v>1.6892403310921915</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="C379">
         <f t="shared" si="5"/>
-        <v>1.8504638770953261</v>
+        <v>1.689240058552762</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="C380">
         <f t="shared" si="5"/>
-        <v>1.8504639897761241</v>
+        <v>1.6892401668795534</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="C381">
         <f t="shared" si="5"/>
-        <v>1.8504637102114361</v>
+        <v>1.689239898117298</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C382">
         <f t="shared" si="5"/>
-        <v>1.8504637614340846</v>
+        <v>1.689239947360694</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="C383">
         <f t="shared" si="5"/>
-        <v>1.8504543068320345</v>
+        <v>1.6892308580875324</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="C384">
         <f t="shared" si="5"/>
-        <v>1.8504639518558248</v>
+        <v>1.6892401304245011</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="C385">
         <f t="shared" si="5"/>
-        <v>1.850463497855833</v>
+        <v>1.6892396939671577</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -9843,8 +9843,8 @@
         <v>37917.434462565303</v>
       </c>
       <c r="C386">
-        <f t="shared" ref="C386:C449" si="6">585.23*B386^-0.546</f>
-        <v>1.8504634734828305</v>
+        <f t="shared" ref="C386:C449" si="6">725.31*B386^-0.575</f>
+        <v>1.6892396705359323</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="C387">
         <f t="shared" si="6"/>
-        <v>1.8504640869165354</v>
+        <v>1.6892402602664423</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="C388">
         <f t="shared" si="6"/>
-        <v>1.8504639943586092</v>
+        <v>1.6892401712849689</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="C389">
         <f t="shared" si="6"/>
-        <v>1.8499685419958922</v>
+        <v>1.6887638666814433</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="C390">
         <f t="shared" si="6"/>
-        <v>1.8504641744050649</v>
+        <v>1.6892403443743986</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -9904,7 +9904,7 @@
       </c>
       <c r="C391">
         <f t="shared" si="6"/>
-        <v>1.850463842596576</v>
+        <v>1.689240025387051</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="C392">
         <f t="shared" si="6"/>
-        <v>1.8504639237255869</v>
+        <v>1.6892401033812217</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="C393">
         <f t="shared" si="6"/>
-        <v>1.8504644946371567</v>
+        <v>1.6892406522326642</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="C394">
         <f t="shared" si="6"/>
-        <v>1.8504642187573475</v>
+        <v>1.6892403870128996</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="C395">
         <f t="shared" si="6"/>
-        <v>1.8504640117355899</v>
+        <v>1.6892401879905026</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="C396">
         <f t="shared" si="6"/>
-        <v>1.8504611911468767</v>
+        <v>1.6892374763899731</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="C397">
         <f t="shared" si="6"/>
-        <v>1.8504639294849252</v>
+        <v>1.6892401089180165</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="C398">
         <f t="shared" si="6"/>
-        <v>1.850463457701832</v>
+        <v>1.6892396553647164</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="C399">
         <f t="shared" si="6"/>
-        <v>1.8504634123160579</v>
+        <v>1.6892396117326571</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="C400">
         <f t="shared" si="6"/>
-        <v>1.850461278140628</v>
+        <v>1.6892375600222633</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="C401">
         <f t="shared" si="6"/>
-        <v>1.8504626570283902</v>
+        <v>1.6892388856294658</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="C402">
         <f t="shared" si="6"/>
-        <v>1.8524750537776418</v>
+        <v>1.6911735787715763</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="C403">
         <f t="shared" si="6"/>
-        <v>1.8524720958393177</v>
+        <v>1.6911707349646055</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="C404">
         <f t="shared" si="6"/>
-        <v>1.8504640362752531</v>
+        <v>1.689240211581948</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="C405">
         <f t="shared" si="6"/>
-        <v>1.8504640535343102</v>
+        <v>1.689240228174111</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="C406">
         <f t="shared" si="6"/>
-        <v>1.8504631512251195</v>
+        <v>1.6892393607303264</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="C407">
         <f t="shared" si="6"/>
-        <v>1.8504627947369974</v>
+        <v>1.6892390180169832</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="C408">
         <f t="shared" si="6"/>
-        <v>1.8504631166886685</v>
+        <v>1.6892393275283715</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="C409">
         <f t="shared" si="6"/>
-        <v>1.8504637532733845</v>
+        <v>1.6892399395153253</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="C410">
         <f t="shared" si="6"/>
-        <v>1.850463405998731</v>
+        <v>1.6892396056594328</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -10144,7 +10144,7 @@
       </c>
       <c r="C411">
         <f t="shared" si="6"/>
-        <v>1.8504627212416154</v>
+        <v>1.6892389473614773</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="C412">
         <f t="shared" si="6"/>
-        <v>1.8504626948466352</v>
+        <v>1.6892389219864057</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="C413">
         <f t="shared" si="6"/>
-        <v>1.8504629233024112</v>
+        <v>1.6892391416146004</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="C414">
         <f t="shared" si="6"/>
-        <v>1.8504635032513161</v>
+        <v>1.6892396991541592</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="C415">
         <f t="shared" si="6"/>
-        <v>1.8504633923861842</v>
+        <v>1.6892395925728778</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C416">
         <f t="shared" si="6"/>
-        <v>1.8504633532331998</v>
+        <v>1.6892395549327717</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C417">
         <f t="shared" si="6"/>
-        <v>1.8504631207342885</v>
+        <v>1.689239331417669</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -10228,7 +10228,7 @@
       </c>
       <c r="C418">
         <f t="shared" si="6"/>
-        <v>1.8504632354838073</v>
+        <v>1.6892394417332406</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="C419">
         <f t="shared" si="6"/>
-        <v>1.8504630888834523</v>
+        <v>1.6892393007975546</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="C420">
         <f t="shared" si="6"/>
-        <v>1.850462495698906</v>
+        <v>1.6892387305337897</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="C421">
         <f t="shared" si="6"/>
-        <v>1.8504624099731577</v>
+        <v>1.6892386481205039</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="C422">
         <f t="shared" si="6"/>
-        <v>1.8504620944359407</v>
+        <v>1.6892383447757198</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="C423">
         <f t="shared" si="6"/>
-        <v>1.8504616343744371</v>
+        <v>1.6892379024911057</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="C424">
         <f t="shared" si="6"/>
-        <v>1.8504614051815631</v>
+        <v>1.689237682154302</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="C425">
         <f t="shared" si="6"/>
-        <v>1.8504621724601991</v>
+        <v>1.6892384197851014</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -10324,7 +10324,7 @@
       </c>
       <c r="C426">
         <f t="shared" si="6"/>
-        <v>1.8504618672083171</v>
+        <v>1.6892381263282261</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="C427">
         <f t="shared" si="6"/>
-        <v>1.8504617521148032</v>
+        <v>1.6892380156819544</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="C428">
         <f t="shared" si="6"/>
-        <v>1.8504612374446161</v>
+        <v>1.6892375208987565</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="C429">
         <f t="shared" si="6"/>
-        <v>1.8504619274673295</v>
+        <v>1.6892381842588162</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="C430">
         <f t="shared" si="6"/>
-        <v>1.8504610537319741</v>
+        <v>1.6892373442848196</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="C431">
         <f t="shared" si="6"/>
-        <v>1.8504615997218672</v>
+        <v>1.6892378691775194</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="C432">
         <f t="shared" si="6"/>
-        <v>1.8504620391444897</v>
+        <v>1.6892382916207431</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C433">
         <f t="shared" si="6"/>
-        <v>1.8504620143646002</v>
+        <v>1.6892382677983553</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="C434">
         <f t="shared" si="6"/>
-        <v>1.8504618762021081</v>
+        <v>1.6892381349744958</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="C435">
         <f t="shared" si="6"/>
-        <v>1.8504565251691212</v>
+        <v>1.6892329907071344</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="C436">
         <f t="shared" si="6"/>
-        <v>1.850461747466329</v>
+        <v>1.6892380112130996</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="C437">
         <f t="shared" si="6"/>
-        <v>1.8504617725575883</v>
+        <v>1.6892380353348249</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="C438">
         <f t="shared" si="6"/>
-        <v>1.8504617506051981</v>
+        <v>1.6892380142306813</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="C439">
         <f t="shared" si="6"/>
-        <v>1.8504617855791043</v>
+        <v>1.6892380478531872</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="C440">
         <f t="shared" si="6"/>
-        <v>1.8504616097531961</v>
+        <v>1.6892378788212365</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="C441">
         <f t="shared" si="6"/>
-        <v>1.8504622133811102</v>
+        <v>1.6892384591248195</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="C442">
         <f t="shared" si="6"/>
-        <v>1.8504617650137867</v>
+        <v>1.6892380280825181</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="C443">
         <f t="shared" si="6"/>
-        <v>1.8504618900187617</v>
+        <v>1.6892381482572691</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="C444">
         <f t="shared" si="6"/>
-        <v>1.8504622094178025</v>
+        <v>1.6892384553146556</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="C445">
         <f t="shared" si="6"/>
-        <v>1.8504617050510113</v>
+        <v>1.6892379704367186</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="C446">
         <f t="shared" si="6"/>
-        <v>1.8504618148414786</v>
+        <v>1.689238075984856</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="C447">
         <f t="shared" si="6"/>
-        <v>1.8504618890328053</v>
+        <v>1.6892381473094118</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="C448">
         <f t="shared" si="6"/>
-        <v>1.8504610188005424</v>
+        <v>1.6892373107031466</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="C449">
         <f t="shared" si="6"/>
-        <v>1.8504602927745337</v>
+        <v>1.6892366127309866</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -10611,8 +10611,8 @@
         <v>37917.500686625499</v>
       </c>
       <c r="C450">
-        <f t="shared" ref="C450:C513" si="7">585.23*B450^-0.546</f>
-        <v>1.8504617088700019</v>
+        <f t="shared" ref="C450:C513" si="7">725.31*B450^-0.575</f>
+        <v>1.6892379741081429</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -10624,7 +10624,7 @@
       </c>
       <c r="C451">
         <f t="shared" si="7"/>
-        <v>1.8504620304435633</v>
+        <v>1.6892382832560242</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="C452">
         <f t="shared" si="7"/>
-        <v>1.8511312970277047</v>
+        <v>1.6898816953968303</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="C453">
         <f t="shared" si="7"/>
-        <v>1.850461696212182</v>
+        <v>1.6892379619394249</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -10660,7 +10660,7 @@
       </c>
       <c r="C454">
         <f t="shared" si="7"/>
-        <v>1.8504618556462757</v>
+        <v>1.689238115212945</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="C455">
         <f t="shared" si="7"/>
-        <v>1.8504610859477251</v>
+        <v>1.6892373752557448</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="C456">
         <f t="shared" si="7"/>
-        <v>1.8504615721650077</v>
+        <v>1.6892378426854633</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="C457">
         <f t="shared" si="7"/>
-        <v>1.8504596258991473</v>
+        <v>1.689235971623865</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="C458">
         <f t="shared" si="7"/>
-        <v>1.8504620387236117</v>
+        <v>1.6892382912161286</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="C459">
         <f t="shared" si="7"/>
-        <v>1.8504597086584276</v>
+        <v>1.6892360511853004</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="C460">
         <f t="shared" si="7"/>
-        <v>1.8504614064165548</v>
+        <v>1.6892376833415756</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="C461">
         <f t="shared" si="7"/>
-        <v>1.8504620002209533</v>
+        <v>1.6892382542012225</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="C462">
         <f t="shared" si="7"/>
-        <v>1.8504601100626552</v>
+        <v>1.6892364370791482</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -10768,7 +10768,7 @@
       </c>
       <c r="C463">
         <f t="shared" si="7"/>
-        <v>1.850461826482124</v>
+        <v>1.6892380871757045</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="C464">
         <f t="shared" si="7"/>
-        <v>1.8504615238090742</v>
+        <v>1.6892377961980161</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="C465">
         <f t="shared" si="7"/>
-        <v>1.8504599748541519</v>
+        <v>1.6892363070951415</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="C466">
         <f t="shared" si="7"/>
-        <v>1.8504621543469242</v>
+        <v>1.6892384023717282</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="C467">
         <f t="shared" si="7"/>
-        <v>1.850462193554661</v>
+        <v>1.6892384400644695</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="C468">
         <f t="shared" si="7"/>
-        <v>1.8504615368000714</v>
+        <v>1.6892378086870372</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="C469">
         <f t="shared" si="7"/>
-        <v>1.8504614980712382</v>
+        <v>1.6892377714546964</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -10852,7 +10852,7 @@
       </c>
       <c r="C470">
         <f t="shared" si="7"/>
-        <v>1.8504617541337114</v>
+        <v>1.689238017622853</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="C471">
         <f t="shared" si="7"/>
-        <v>1.8504615201110188</v>
+        <v>1.6892377926428537</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="C472">
         <f t="shared" si="7"/>
-        <v>1.8504616926829722</v>
+        <v>1.6892379585465842</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="C473">
         <f t="shared" si="7"/>
-        <v>1.8504614286108785</v>
+        <v>1.689237704678304</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="C474">
         <f t="shared" si="7"/>
-        <v>1.8504617069508862</v>
+        <v>1.6892379722631827</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -10912,7 +10912,7 @@
       </c>
       <c r="C475">
         <f t="shared" si="7"/>
-        <v>1.850461646702835</v>
+        <v>1.6892379143431322</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="C476">
         <f t="shared" si="7"/>
-        <v>1.8504616686434401</v>
+        <v>1.6892379354359452</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="C477">
         <f t="shared" si="7"/>
-        <v>1.8504617192173263</v>
+        <v>1.6892379840556446</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="C478">
         <f t="shared" si="7"/>
-        <v>1.8504615068234749</v>
+        <v>1.6892377798687446</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -10960,7 +10960,7 @@
       </c>
       <c r="C479">
         <f t="shared" si="7"/>
-        <v>1.8504614614686861</v>
+        <v>1.6892377362664774</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="C480">
         <f t="shared" si="7"/>
-        <v>1.8504612018392708</v>
+        <v>1.6892374866692099</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="C481">
         <f t="shared" si="7"/>
-        <v>1.8504615259802362</v>
+        <v>1.6892377982852846</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="C482">
         <f t="shared" si="7"/>
-        <v>1.8504601635517295</v>
+        <v>1.6892364885013891</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="C483">
         <f t="shared" si="7"/>
-        <v>1.8504612960226086</v>
+        <v>1.6892375772132793</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="C484">
         <f t="shared" si="7"/>
-        <v>1.8504617469810538</v>
+        <v>1.689238010746575</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="C485">
         <f t="shared" si="7"/>
-        <v>1.8504617662151288</v>
+        <v>1.6892380292374403</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -11044,7 +11044,7 @@
       </c>
       <c r="C486">
         <f t="shared" si="7"/>
-        <v>1.8504615984738813</v>
+        <v>1.6892378679777567</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -11056,7 +11056,7 @@
       </c>
       <c r="C487">
         <f t="shared" si="7"/>
-        <v>1.8504616439779196</v>
+        <v>1.6892379117235079</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="C488">
         <f t="shared" si="7"/>
-        <v>1.8504520480048749</v>
+        <v>1.6892286865425521</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="C489">
         <f t="shared" si="7"/>
-        <v>1.850455358173517</v>
+        <v>1.6892318688047172</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -11092,7 +11092,7 @@
       </c>
       <c r="C490">
         <f t="shared" si="7"/>
-        <v>1.8504594564089765</v>
+        <v>1.6892358086828461</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="C491">
         <f t="shared" si="7"/>
-        <v>1.8504621410111097</v>
+        <v>1.6892383895512135</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="C492">
         <f t="shared" si="7"/>
-        <v>1.8504618345236949</v>
+        <v>1.689238094906546</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="C493">
         <f t="shared" si="7"/>
-        <v>1.850461513050409</v>
+        <v>1.6892377858550693</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="C494">
         <f t="shared" si="7"/>
-        <v>1.8504613136405599</v>
+        <v>1.6892375941504691</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="C495">
         <f t="shared" si="7"/>
-        <v>1.8504615315194197</v>
+        <v>1.6892378036104321</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="C496">
         <f t="shared" si="7"/>
-        <v>1.8504613586932031</v>
+        <v>1.6892376374622637</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="C497">
         <f t="shared" si="7"/>
-        <v>1.8504611116215213</v>
+        <v>1.689237399937499</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="C498">
         <f t="shared" si="7"/>
-        <v>1.850461718436663</v>
+        <v>1.6892379833051465</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="C499">
         <f t="shared" si="7"/>
-        <v>1.850461563756379</v>
+        <v>1.6892378346017476</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="C500">
         <f t="shared" si="7"/>
-        <v>1.8504615532023587</v>
+        <v>1.6892378244555371</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="C501">
         <f t="shared" si="7"/>
-        <v>1.8504612770226017</v>
+        <v>1.6892375589474375</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="C502">
         <f t="shared" si="7"/>
-        <v>1.8504612112011427</v>
+        <v>1.6892374956693355</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C503">
         <f t="shared" si="7"/>
-        <v>1.8504599681451996</v>
+        <v>1.6892363006454254</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="C504">
         <f t="shared" si="7"/>
-        <v>1.8504619984959447</v>
+        <v>1.6892382525428686</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="C505">
         <f t="shared" si="7"/>
-        <v>1.850461686813279</v>
+        <v>1.6892379529036978</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="C506">
         <f t="shared" si="7"/>
-        <v>1.8504622006189633</v>
+        <v>1.6892384468558057</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="C507">
         <f t="shared" si="7"/>
-        <v>1.8504612162825385</v>
+        <v>1.6892375005543863</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="C508">
         <f t="shared" si="7"/>
-        <v>1.8504617135275745</v>
+        <v>1.6892379785857448</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="C509">
         <f t="shared" si="7"/>
-        <v>1.8504610854965684</v>
+        <v>1.6892373748220209</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -11332,7 +11332,7 @@
       </c>
       <c r="C510">
         <f t="shared" si="7"/>
-        <v>1.8504616023165881</v>
+        <v>1.6892378716719803</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="C511">
         <f t="shared" si="7"/>
-        <v>1.8504617809056567</v>
+        <v>1.6892380433603222</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="C512">
         <f t="shared" si="7"/>
-        <v>1.850461601798572</v>
+        <v>1.6892378711739815</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="C513">
         <f t="shared" si="7"/>
-        <v>1.8504610836324673</v>
+        <v>1.6892373730299497</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -11379,8 +11379,8 @@
         <v>37917.516353098501</v>
       </c>
       <c r="C514">
-        <f t="shared" ref="C514:C577" si="8">585.23*B514^-0.546</f>
-        <v>1.850461291420316</v>
+        <f t="shared" ref="C514:C577" si="8">725.31*B514^-0.575</f>
+        <v>1.6892375727888209</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="C515">
         <f t="shared" si="8"/>
-        <v>1.8504611028764888</v>
+        <v>1.6892373915303758</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="C516">
         <f t="shared" si="8"/>
-        <v>1.8504619316484927</v>
+        <v>1.6892381882784173</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="C517">
         <f t="shared" si="8"/>
-        <v>1.8504617507986971</v>
+        <v>1.6892380144167034</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="C518">
         <f t="shared" si="8"/>
-        <v>1.8518014944169696</v>
+        <v>1.6905260147661181</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -11440,7 +11440,7 @@
       </c>
       <c r="C519">
         <f t="shared" si="8"/>
-        <v>1.8504622068398151</v>
+        <v>1.6892384528362818</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="C520">
         <f t="shared" si="8"/>
-        <v>1.8504618144243103</v>
+        <v>1.6892380755838063</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="C521">
         <f t="shared" si="8"/>
-        <v>1.85046203974201</v>
+        <v>1.6892382921951743</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -11476,7 +11476,7 @@
       </c>
       <c r="C522">
         <f t="shared" si="8"/>
-        <v>1.8504620067784843</v>
+        <v>1.6892382605053688</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -11488,7 +11488,7 @@
       </c>
       <c r="C523">
         <f t="shared" si="8"/>
-        <v>1.8504619532072242</v>
+        <v>1.689238209004116</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="C524">
         <f t="shared" si="8"/>
-        <v>1.85046198919984</v>
+        <v>1.6892382436059663</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="C525">
         <f t="shared" si="8"/>
-        <v>1.8504616578857056</v>
+        <v>1.6892379250938938</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="C526">
         <f t="shared" si="8"/>
-        <v>1.8504618763094052</v>
+        <v>1.6892381350776475</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="C527">
         <f t="shared" si="8"/>
-        <v>1.8504616342960682</v>
+        <v>1.6892379024157655</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="C528">
         <f t="shared" si="8"/>
-        <v>1.8504620730625005</v>
+        <v>1.6892383242281537</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="C529">
         <f t="shared" si="8"/>
-        <v>1.8504622669343185</v>
+        <v>1.6892385106087184</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="C530">
         <f t="shared" si="8"/>
-        <v>1.8504617107337633</v>
+        <v>1.6892379758998877</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="C531">
         <f t="shared" si="8"/>
-        <v>1.8504616230159285</v>
+        <v>1.6892378915714921</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="C532">
         <f t="shared" si="8"/>
-        <v>1.8504616420354933</v>
+        <v>1.6892379098561368</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="C533">
         <f t="shared" si="8"/>
-        <v>1.8504618478436505</v>
+        <v>1.6892381077118153</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="C534">
         <f t="shared" si="8"/>
-        <v>1.8504618955598757</v>
+        <v>1.689238153584274</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="C535">
         <f t="shared" si="8"/>
-        <v>1.8504617886141446</v>
+        <v>1.6892380507709526</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="C536">
         <f t="shared" si="8"/>
-        <v>1.8504617704109787</v>
+        <v>1.6892380332711607</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="C537">
         <f t="shared" si="8"/>
-        <v>1.8504616686041395</v>
+        <v>1.6892379353981637</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="C538">
         <f t="shared" si="8"/>
-        <v>1.850461997987116</v>
+        <v>1.6892382520537008</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
@@ -11680,7 +11680,7 @@
       </c>
       <c r="C539">
         <f t="shared" si="8"/>
-        <v>1.8504469997157125</v>
+        <v>1.6892238333222453</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="C540">
         <f t="shared" si="8"/>
-        <v>1.8504621895947784</v>
+        <v>1.6892384362575958</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="C541">
         <f t="shared" si="8"/>
-        <v>1.8504619355481555</v>
+        <v>1.689238192027398</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="C542">
         <f t="shared" si="8"/>
-        <v>1.8504611566782121</v>
+        <v>1.6892374432531869</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -11728,7 +11728,7 @@
       </c>
       <c r="C543">
         <f t="shared" si="8"/>
-        <v>1.8504553102874417</v>
+        <v>1.6892318227689807</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="C544">
         <f t="shared" si="8"/>
-        <v>1.850461639046338</v>
+        <v>1.6892379069824832</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="C545">
         <f t="shared" si="8"/>
-        <v>1.8504594812445176</v>
+        <v>1.6892358325587342</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="C546">
         <f t="shared" si="8"/>
-        <v>1.8504621118660984</v>
+        <v>1.6892383615323714</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="C547">
         <f t="shared" si="8"/>
-        <v>1.850461925180358</v>
+        <v>1.6892381820602136</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="C548">
         <f t="shared" si="8"/>
-        <v>1.8504618909857371</v>
+        <v>1.6892381491868815</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="C549">
         <f t="shared" si="8"/>
-        <v>1.8504611499296002</v>
+        <v>1.6892374367653429</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -11812,7 +11812,7 @@
       </c>
       <c r="C550">
         <f t="shared" si="8"/>
-        <v>1.850461993678703</v>
+        <v>1.689238247911766</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="C551">
         <f t="shared" si="8"/>
-        <v>1.8504603997198348</v>
+        <v>1.6892367155438899</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="C552">
         <f t="shared" si="8"/>
-        <v>1.8504618592362199</v>
+        <v>1.6892381186641736</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="C553">
         <f t="shared" si="8"/>
-        <v>1.8504619782995513</v>
+        <v>1.6892382331268689</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="C554">
         <f t="shared" si="8"/>
-        <v>1.8504619267506555</v>
+        <v>1.6892381835698338</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -11872,7 +11872,7 @@
       </c>
       <c r="C555">
         <f t="shared" si="8"/>
-        <v>1.8504618570495011</v>
+        <v>1.6892381165619488</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="C556">
         <f t="shared" si="8"/>
-        <v>1.8504618305989669</v>
+        <v>1.6892380911334699</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="C557">
         <f t="shared" si="8"/>
-        <v>1.8504610178492684</v>
+        <v>1.68923730978863</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C558">
         <f t="shared" si="8"/>
-        <v>1.8504620090096133</v>
+        <v>1.6892382626502875</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="C559">
         <f t="shared" si="8"/>
-        <v>1.8504623128151552</v>
+        <v>1.6892385547167099</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="C560">
         <f t="shared" si="8"/>
-        <v>1.8504622272394959</v>
+        <v>1.6892384724477136</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C561">
         <f t="shared" si="8"/>
-        <v>1.8504614102381467</v>
+        <v>1.6892376870154993</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="C562">
         <f t="shared" si="8"/>
-        <v>1.8504617307792288</v>
+        <v>1.6892379951707923</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="C563">
         <f t="shared" si="8"/>
-        <v>1.8504616191342074</v>
+        <v>1.6892378878397616</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="C564">
         <f t="shared" si="8"/>
-        <v>1.8504615262681534</v>
+        <v>1.6892377985620759</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="C565">
         <f t="shared" si="8"/>
-        <v>1.8504618136394213</v>
+        <v>1.6892380748292453</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="C566">
         <f t="shared" si="8"/>
-        <v>1.8504619846700225</v>
+        <v>1.6892382392511838</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="C567">
         <f t="shared" si="8"/>
-        <v>1.8504614217234368</v>
+        <v>1.6892376980569945</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="C568">
         <f t="shared" si="8"/>
-        <v>1.8504617730581696</v>
+        <v>1.6892380358160635</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="C569">
         <f t="shared" si="8"/>
-        <v>1.8504617634790124</v>
+        <v>1.6892380266070479</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C570">
         <f t="shared" si="8"/>
-        <v>1.8504618566053292</v>
+        <v>1.6892381161349401</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C571">
         <f t="shared" si="8"/>
-        <v>1.8504616407199728</v>
+        <v>1.6892379085914482</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="C572">
         <f t="shared" si="8"/>
-        <v>1.8504616430639931</v>
+        <v>1.6892379108448954</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="C573">
         <f t="shared" si="8"/>
-        <v>1.8504599971863493</v>
+        <v>1.6892363285644172</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -12100,7 +12100,7 @@
       </c>
       <c r="C574">
         <f t="shared" si="8"/>
-        <v>1.8504621085639068</v>
+        <v>1.6892383583577777</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="C575">
         <f t="shared" si="8"/>
-        <v>1.8504617569129429</v>
+        <v>1.6892380202946922</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="C576">
         <f t="shared" si="8"/>
-        <v>1.8504610416658263</v>
+        <v>1.6892373326849104</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="C577">
         <f t="shared" si="8"/>
-        <v>1.8504616002601926</v>
+        <v>1.6892378696950439</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -12147,8 +12147,8 @@
         <v>37917.489584442301</v>
       </c>
       <c r="C578">
-        <f t="shared" ref="C578:C641" si="9">585.23*B578^-0.546</f>
-        <v>1.8504620046995373</v>
+        <f t="shared" ref="C578:C641" si="9">725.31*B578^-0.575</f>
+        <v>1.689238258506752</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="C579">
         <f t="shared" si="9"/>
-        <v>1.8504600518891967</v>
+        <v>1.6892363811535298</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="C580">
         <f t="shared" si="9"/>
-        <v>1.8504613714163085</v>
+        <v>1.6892376496937451</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="C581">
         <f t="shared" si="9"/>
-        <v>1.8504615034451666</v>
+        <v>1.6892377766209756</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="C582">
         <f t="shared" si="9"/>
-        <v>1.8504617917614059</v>
+        <v>1.6892380537966021</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="C583">
         <f t="shared" si="9"/>
-        <v>1.8504616126749649</v>
+        <v>1.6892378816301068</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="C584">
         <f t="shared" si="9"/>
-        <v>1.8504617724751122</v>
+        <v>1.6892380352555361</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="C585">
         <f t="shared" si="9"/>
-        <v>1.8504615400984687</v>
+        <v>1.6892378118579849</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="C586">
         <f t="shared" si="9"/>
-        <v>1.8504618620805307</v>
+        <v>1.689238121398579</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="C587">
         <f t="shared" si="9"/>
-        <v>1.8504620421750859</v>
+        <v>1.6892382945342359</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="C588">
         <f t="shared" si="9"/>
-        <v>1.8504621024263925</v>
+        <v>1.6892383524574175</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="C589">
         <f t="shared" si="9"/>
-        <v>1.8504617729209258</v>
+        <v>1.6892380356841232</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="C590">
         <f t="shared" si="9"/>
-        <v>1.8504614523563192</v>
+        <v>1.6892377275062136</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="C591">
         <f t="shared" si="9"/>
-        <v>1.8504609689055538</v>
+        <v>1.6892372627361134</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="C592">
         <f t="shared" si="9"/>
-        <v>1.8504616889510659</v>
+        <v>1.6892379549588792</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="C593">
         <f t="shared" si="9"/>
-        <v>1.8504547693172684</v>
+        <v>1.6892313027021304</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="C594">
         <f t="shared" si="9"/>
-        <v>1.850462095964134</v>
+        <v>1.6892383462448635</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="C595">
         <f t="shared" si="9"/>
-        <v>1.850461971425345</v>
+        <v>1.6892382265182844</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="C596">
         <f t="shared" si="9"/>
-        <v>1.8511305137554812</v>
+        <v>1.6898809423759822</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="C597">
         <f t="shared" si="9"/>
-        <v>1.8504616499657633</v>
+        <v>1.6892379174799792</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -12388,7 +12388,7 @@
       </c>
       <c r="C598">
         <f t="shared" si="9"/>
-        <v>1.8504614154900934</v>
+        <v>1.6892376920645091</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="C599">
         <f t="shared" si="9"/>
-        <v>1.8504618699431781</v>
+        <v>1.6892381289574123</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="C600">
         <f t="shared" si="9"/>
-        <v>1.850462067001506</v>
+        <v>1.6892383184013582</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="C601">
         <f t="shared" si="9"/>
-        <v>1.8571911089963036</v>
+        <v>1.6957079726019724</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="C602">
         <f t="shared" si="9"/>
-        <v>1.8681040933805702</v>
+        <v>1.7062029339328966</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="C603">
         <f t="shared" si="9"/>
-        <v>1.8798995331438488</v>
+        <v>1.7175502100903417</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="C604">
         <f t="shared" si="9"/>
-        <v>1.8904839101048536</v>
+        <v>1.7277356577040195</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="C605">
         <f t="shared" si="9"/>
-        <v>1.8997950286511727</v>
+        <v>1.7366983416594084</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="C606">
         <f t="shared" si="9"/>
-        <v>1.9077765717156459</v>
+        <v>1.7443830624738985</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="C607">
         <f t="shared" si="9"/>
-        <v>1.9158535199185718</v>
+        <v>1.7521613789815591</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="C608">
         <f t="shared" si="9"/>
-        <v>1.9217890091377849</v>
+        <v>1.7578785241522457</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="C609">
         <f t="shared" si="9"/>
-        <v>1.930035054808567</v>
+        <v>1.765822785284602</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="C610">
         <f t="shared" si="9"/>
-        <v>1.9383825178343737</v>
+        <v>1.7738665884958043</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="C611">
         <f t="shared" si="9"/>
-        <v>1.9476065881433724</v>
+        <v>1.7827572499667499</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="C612">
         <f t="shared" si="9"/>
-        <v>1.9585266863291004</v>
+        <v>1.7932855261719123</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="C613">
         <f t="shared" si="9"/>
-        <v>1.9696197063041909</v>
+        <v>1.8039837123237601</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -12580,7 +12580,7 @@
       </c>
       <c r="C614">
         <f t="shared" si="9"/>
-        <v>1.9833367468477512</v>
+        <v>1.8172169464069876</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="C615">
         <f t="shared" si="9"/>
-        <v>1.996495260985891</v>
+        <v>1.8299159230912021</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="C616">
         <f t="shared" si="9"/>
-        <v>2.0056859702462155</v>
+        <v>1.8387883023012284</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="C617">
         <f t="shared" si="9"/>
-        <v>2.0149969908766798</v>
+        <v>1.8477790279809398</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="C618">
         <f t="shared" si="9"/>
-        <v>2.02270840731844</v>
+        <v>1.8552268463003161</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -12640,7 +12640,7 @@
       </c>
       <c r="C619">
         <f t="shared" si="9"/>
-        <v>2.0278950431270806</v>
+        <v>1.8602370368782739</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -12652,7 +12652,7 @@
       </c>
       <c r="C620">
         <f t="shared" si="9"/>
-        <v>2.0366244941612277</v>
+        <v>1.8686710549292525</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="C621">
         <f t="shared" si="9"/>
-        <v>2.0436827290793116</v>
+        <v>1.8754918206429778</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -12676,7 +12676,7 @@
       </c>
       <c r="C622">
         <f t="shared" si="9"/>
-        <v>2.0535071398163947</v>
+        <v>1.8849877782920965</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -12688,7 +12688,7 @@
       </c>
       <c r="C623">
         <f t="shared" si="9"/>
-        <v>2.0625538646368495</v>
+        <v>1.8937341844534628</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="C624">
         <f t="shared" si="9"/>
-        <v>2.0735592442881217</v>
+        <v>1.904376971764272</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="C625">
         <f t="shared" si="9"/>
-        <v>2.0837959141098907</v>
+        <v>1.9142790696755614</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="C626">
         <f t="shared" si="9"/>
-        <v>2.0951268626042716</v>
+        <v>1.925242693834966</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="C627">
         <f t="shared" si="9"/>
-        <v>2.10566887032939</v>
+        <v>1.9354457817262125</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="C628">
         <f t="shared" si="9"/>
-        <v>2.116360904360401</v>
+        <v>1.9457968442959195</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="C629">
         <f t="shared" si="9"/>
-        <v>2.1272108880542673</v>
+        <v>1.9563036591971086</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="C630">
         <f t="shared" si="9"/>
-        <v>2.1392283554622038</v>
+        <v>1.9679443542246684</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -12784,7 +12784,7 @@
       </c>
       <c r="C631">
         <f t="shared" si="9"/>
-        <v>2.1493892707867754</v>
+        <v>1.9777894149234752</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -12796,7 +12796,7 @@
       </c>
       <c r="C632">
         <f t="shared" si="9"/>
-        <v>2.1596889161676072</v>
+        <v>1.987771416310671</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="C633">
         <f t="shared" si="9"/>
-        <v>2.1690794666292539</v>
+        <v>1.9968745636423157</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="C634">
         <f t="shared" si="9"/>
-        <v>2.1796496275320285</v>
+        <v>2.0071237227709675</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="C635">
         <f t="shared" si="9"/>
-        <v>2.1860616724979258</v>
+        <v>2.0133423298051025</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -12844,7 +12844,7 @@
       </c>
       <c r="C636">
         <f t="shared" si="9"/>
-        <v>2.1914471596398029</v>
+        <v>2.0185660968376098</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="C637">
         <f t="shared" si="9"/>
-        <v>2.2045253858176577</v>
+        <v>2.0312544340581122</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="C638">
         <f t="shared" si="9"/>
-        <v>2.2178278391588497</v>
+        <v>2.0441644157212835</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -12880,7 +12880,7 @@
       </c>
       <c r="C639">
         <f t="shared" si="9"/>
-        <v>2.2370653987162781</v>
+        <v>2.062841665650772</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -12892,7 +12892,7 @@
       </c>
       <c r="C640">
         <f t="shared" si="9"/>
-        <v>2.2556117622315419</v>
+        <v>2.0808559304553529</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="C641">
         <f t="shared" si="9"/>
-        <v>2.274599196924433</v>
+        <v>2.0993067633891616</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
@@ -12915,8 +12915,8 @@
         <v>25681.628480262902</v>
       </c>
       <c r="C642">
-        <f t="shared" ref="C642:C656" si="10">585.23*B642^-0.546</f>
-        <v>2.289141630519048</v>
+        <f t="shared" ref="C642:C656" si="10">725.31*B642^-0.575</f>
+        <v>2.1134437516812463</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C643">
         <f t="shared" si="10"/>
-        <v>2.3051952429949987</v>
+        <v>2.1290553261463883</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="C644">
         <f t="shared" si="10"/>
-        <v>2.329243100431893</v>
+        <v>2.1524518173033229</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="C645">
         <f t="shared" si="10"/>
-        <v>2.3513724973795838</v>
+        <v>2.1739931533986114</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="C646">
         <f t="shared" si="10"/>
-        <v>2.3714001122177533</v>
+        <v>2.1934978469685338</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="C647">
         <f t="shared" si="10"/>
-        <v>2.390536098874477</v>
+        <v>2.2121423692841917</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="C648">
         <f t="shared" si="10"/>
-        <v>2.4058808433227439</v>
+        <v>2.2270987498297483</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="C649">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -13012,7 +13012,7 @@
       </c>
       <c r="C650">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="C651">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="C652">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="C653">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -13060,7 +13060,7 @@
       </c>
       <c r="C654">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C655">
         <f t="shared" si="10"/>
-        <v>2.4058811536934699</v>
+        <v>2.2270990523965777</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -13084,7 +13084,7 @@
       </c>
       <c r="C656">
         <f t="shared" si="10"/>
-        <v>4.1213964243994079</v>
+        <v>3.9257814624866358</v>
       </c>
     </row>
   </sheetData>
